--- a/output/Gantt Chart.xlsx
+++ b/output/Gantt Chart.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="97">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -512,179 +512,6 @@
         <charset val="129"/>
       </rPr>
       <t>모아보기</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>겜비티아이</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문조사 구성</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디자인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작</t>
     </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1202,18 +1029,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>추가 기술(가능하면 사용)</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 큐</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAM DB cache 구성</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1317,10 +1132,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>??</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>최홍준</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -1350,6 +1161,14 @@
   </si>
   <si>
     <t>젠킨스 배포 설정</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https 적용</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>7..3</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -1361,7 +1180,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1594,6 +1413,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1741,7 +1566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2001,6 +1826,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color rgb="FFB7B7B7"/>
       </left>
@@ -2011,7 +1860,20 @@
         <color rgb="FFB7B7B7"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FFB7B7B7"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2023,14 +1885,16 @@
         <color rgb="FFB7B7B7"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2241,10 +2105,6 @@
     <xf numFmtId="0" fontId="28" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2252,18 +2112,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2273,63 +2127,24 @@
     <xf numFmtId="0" fontId="28" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2352,6 +2167,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2363,22 +2179,122 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2834,10 +2750,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CA89"/>
+  <dimension ref="A1:CA82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2941,45 +2857,45 @@
     </row>
     <row r="2" spans="1:79" ht="40.799999999999997" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
       <c r="AM2" s="12"/>
       <c r="AN2" s="12"/>
       <c r="AO2" s="12"/>
@@ -3108,43 +3024,43 @@
       <c r="B4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="104" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="102" t="s">
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
@@ -3199,42 +3115,42 @@
       <c r="B5" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101">
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113">
         <v>45023</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
       <c r="AG5" s="20"/>
       <c r="AH5" s="18"/>
       <c r="AI5" s="1"/>
@@ -3447,16 +3363,16 @@
     </row>
     <row r="8" spans="1:79" ht="17.25" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="102" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="106" t="s">
@@ -3465,342 +3381,342 @@
       <c r="G8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="114" t="s">
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="96"/>
+      <c r="AC8" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="108" t="s">
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="96"/>
+      <c r="AJ8" s="96"/>
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="96"/>
+      <c r="AN8" s="96"/>
+      <c r="AO8" s="96"/>
+      <c r="AP8" s="96"/>
+      <c r="AQ8" s="96"/>
+      <c r="AR8" s="96"/>
+      <c r="AS8" s="96"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="96"/>
+      <c r="AV8" s="96"/>
+      <c r="AW8" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AX8" s="109"/>
-      <c r="AY8" s="109"/>
-      <c r="AZ8" s="109"/>
-      <c r="BA8" s="109"/>
-      <c r="BB8" s="109"/>
-      <c r="BC8" s="109"/>
-      <c r="BD8" s="109"/>
-      <c r="BE8" s="109"/>
-      <c r="BF8" s="109"/>
-      <c r="BG8" s="109"/>
-      <c r="BH8" s="109"/>
-      <c r="BI8" s="109"/>
-      <c r="BJ8" s="109"/>
-      <c r="BK8" s="109"/>
-      <c r="BL8" s="109"/>
-      <c r="BM8" s="109"/>
-      <c r="BN8" s="109"/>
-      <c r="BO8" s="109"/>
-      <c r="BP8" s="109"/>
-      <c r="BQ8" s="109"/>
-      <c r="BR8" s="109"/>
-      <c r="BS8" s="109"/>
-      <c r="BT8" s="109"/>
-      <c r="BU8" s="109"/>
-      <c r="BV8" s="109"/>
-      <c r="BW8" s="109"/>
-      <c r="BX8" s="109"/>
-      <c r="BY8" s="109"/>
-      <c r="BZ8" s="110"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="90"/>
+      <c r="BA8" s="90"/>
+      <c r="BB8" s="90"/>
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="90"/>
+      <c r="BH8" s="90"/>
+      <c r="BI8" s="90"/>
+      <c r="BJ8" s="90"/>
+      <c r="BK8" s="90"/>
+      <c r="BL8" s="90"/>
+      <c r="BM8" s="90"/>
+      <c r="BN8" s="90"/>
+      <c r="BO8" s="90"/>
+      <c r="BP8" s="90"/>
+      <c r="BQ8" s="90"/>
+      <c r="BR8" s="90"/>
+      <c r="BS8" s="90"/>
+      <c r="BT8" s="90"/>
+      <c r="BU8" s="90"/>
+      <c r="BV8" s="90"/>
+      <c r="BW8" s="90"/>
+      <c r="BX8" s="90"/>
+      <c r="BY8" s="90"/>
+      <c r="BZ8" s="91"/>
       <c r="CA8" s="22"/>
     </row>
     <row r="9" spans="1:79" ht="17.25" customHeight="1">
       <c r="A9" s="26"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="88" t="s">
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="115" t="s">
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="115" t="s">
+      <c r="AD9" s="100"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="100"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="100"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="100"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AN9" s="116"/>
-      <c r="AO9" s="116"/>
-      <c r="AP9" s="116"/>
-      <c r="AQ9" s="116"/>
-      <c r="AR9" s="116"/>
-      <c r="AS9" s="116"/>
-      <c r="AT9" s="116"/>
-      <c r="AU9" s="116"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="111" t="s">
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="98"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="AX9" s="112"/>
-      <c r="AY9" s="112"/>
-      <c r="AZ9" s="112"/>
-      <c r="BA9" s="112"/>
-      <c r="BB9" s="112"/>
-      <c r="BC9" s="112"/>
-      <c r="BD9" s="112"/>
-      <c r="BE9" s="112"/>
-      <c r="BF9" s="113"/>
-      <c r="BG9" s="111" t="s">
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="93"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="93"/>
+      <c r="BE9" s="93"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="112"/>
-      <c r="BJ9" s="112"/>
-      <c r="BK9" s="112"/>
-      <c r="BL9" s="112"/>
-      <c r="BM9" s="112"/>
-      <c r="BN9" s="112"/>
-      <c r="BO9" s="112"/>
-      <c r="BP9" s="113"/>
-      <c r="BQ9" s="111" t="s">
+      <c r="BH9" s="93"/>
+      <c r="BI9" s="93"/>
+      <c r="BJ9" s="93"/>
+      <c r="BK9" s="93"/>
+      <c r="BL9" s="93"/>
+      <c r="BM9" s="93"/>
+      <c r="BN9" s="93"/>
+      <c r="BO9" s="93"/>
+      <c r="BP9" s="94"/>
+      <c r="BQ9" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="BR9" s="112"/>
-      <c r="BS9" s="112"/>
-      <c r="BT9" s="112"/>
-      <c r="BU9" s="112"/>
-      <c r="BV9" s="112"/>
-      <c r="BW9" s="112"/>
-      <c r="BX9" s="112"/>
-      <c r="BY9" s="112"/>
-      <c r="BZ9" s="113"/>
+      <c r="BR9" s="93"/>
+      <c r="BS9" s="93"/>
+      <c r="BT9" s="93"/>
+      <c r="BU9" s="93"/>
+      <c r="BV9" s="93"/>
+      <c r="BW9" s="93"/>
+      <c r="BX9" s="93"/>
+      <c r="BY9" s="93"/>
+      <c r="BZ9" s="94"/>
       <c r="CA9" s="26"/>
     </row>
     <row r="10" spans="1:79" s="65" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="92" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94" t="s">
+      <c r="J10" s="121"/>
+      <c r="K10" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94" t="s">
+      <c r="L10" s="121"/>
+      <c r="M10" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="93"/>
-      <c r="O10" s="94" t="s">
+      <c r="N10" s="121"/>
+      <c r="O10" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94" t="s">
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="93"/>
-      <c r="S10" s="92" t="s">
+      <c r="R10" s="121"/>
+      <c r="S10" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="93"/>
-      <c r="U10" s="94" t="s">
+      <c r="T10" s="121"/>
+      <c r="U10" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="94" t="s">
+      <c r="V10" s="121"/>
+      <c r="W10" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="94" t="s">
+      <c r="X10" s="121"/>
+      <c r="Y10" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="94" t="s">
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="120" t="s">
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="122" t="s">
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="122" t="s">
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="122" t="s">
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="AJ10" s="121"/>
-      <c r="AK10" s="122" t="s">
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="120" t="s">
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AN10" s="121"/>
-      <c r="AO10" s="122" t="s">
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AP10" s="121"/>
-      <c r="AQ10" s="122" t="s">
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AR10" s="121"/>
-      <c r="AS10" s="122" t="s">
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="122" t="s">
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="123" t="s">
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AX10" s="124"/>
-      <c r="AY10" s="125" t="s">
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="AZ10" s="124"/>
-      <c r="BA10" s="125" t="s">
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="BB10" s="124"/>
-      <c r="BC10" s="125" t="s">
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="BD10" s="124"/>
-      <c r="BE10" s="125" t="s">
+      <c r="BD10" s="84"/>
+      <c r="BE10" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="BF10" s="124"/>
-      <c r="BG10" s="123" t="s">
+      <c r="BF10" s="84"/>
+      <c r="BG10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="BH10" s="124"/>
-      <c r="BI10" s="125" t="s">
+      <c r="BH10" s="84"/>
+      <c r="BI10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="BJ10" s="124"/>
-      <c r="BK10" s="125" t="s">
+      <c r="BJ10" s="84"/>
+      <c r="BK10" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="BL10" s="124"/>
-      <c r="BM10" s="125" t="s">
+      <c r="BL10" s="84"/>
+      <c r="BM10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="BN10" s="124"/>
-      <c r="BO10" s="125" t="s">
+      <c r="BN10" s="84"/>
+      <c r="BO10" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="BP10" s="124"/>
-      <c r="BQ10" s="123" t="s">
+      <c r="BP10" s="84"/>
+      <c r="BQ10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="BR10" s="124"/>
-      <c r="BS10" s="125" t="s">
+      <c r="BR10" s="84"/>
+      <c r="BS10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="BT10" s="124"/>
-      <c r="BU10" s="125" t="s">
+      <c r="BT10" s="84"/>
+      <c r="BU10" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="BV10" s="124"/>
-      <c r="BW10" s="125" t="s">
+      <c r="BV10" s="84"/>
+      <c r="BW10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="BX10" s="124"/>
-      <c r="BY10" s="125" t="s">
+      <c r="BX10" s="84"/>
+      <c r="BY10" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="BZ10" s="124"/>
+      <c r="BZ10" s="84"/>
       <c r="CA10" s="26"/>
     </row>
     <row r="11" spans="1:79" ht="17.25" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="68" t="s">
         <v>19</v>
       </c>
@@ -4127,18 +4043,18 @@
       <c r="L13" s="54"/>
       <c r="M13" s="54"/>
       <c r="N13" s="54"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
       <c r="AA13" s="55"/>
       <c r="AB13" s="55"/>
       <c r="AC13" s="47"/>
@@ -4226,15 +4142,15 @@
       <c r="P14" s="54"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="54"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
       <c r="AB14" s="55"/>
       <c r="AC14" s="54"/>
       <c r="AD14" s="54"/>
@@ -4308,7 +4224,7 @@
       <c r="G15" s="41">
         <v>8</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="80">
         <v>1</v>
       </c>
       <c r="I15" s="51"/>
@@ -4329,10 +4245,10 @@
       <c r="X15" s="55"/>
       <c r="Y15" s="55"/>
       <c r="Z15" s="55"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
       <c r="AE15" s="54"/>
       <c r="AF15" s="54"/>
       <c r="AG15" s="54"/>
@@ -4410,10 +4326,10 @@
       <c r="J16" s="52"/>
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="47"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="54"/>
       <c r="S16" s="72"/>
@@ -4426,7 +4342,7 @@
       <c r="Z16" s="55"/>
       <c r="AA16" s="55"/>
       <c r="AB16" s="55"/>
-      <c r="AD16" s="77"/>
+      <c r="AD16" s="75"/>
       <c r="AE16" s="54"/>
       <c r="AF16" s="54"/>
       <c r="AG16" s="54"/>
@@ -4506,7 +4422,7 @@
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="54"/>
-      <c r="O17" s="75"/>
+      <c r="O17" s="52"/>
       <c r="P17" s="54"/>
       <c r="Q17" s="54"/>
       <c r="R17" s="54"/>
@@ -4522,12 +4438,12 @@
       <c r="AB17" s="61"/>
       <c r="AC17" s="51"/>
       <c r="AD17" s="52"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
       <c r="AK17" s="60"/>
       <c r="AL17" s="60"/>
       <c r="AM17" s="62"/>
@@ -4593,15 +4509,15 @@
         <v>16</v>
       </c>
       <c r="H18" s="42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="52"/>
       <c r="K18" s="54"/>
       <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
       <c r="R18" s="54"/>
@@ -4621,10 +4537,10 @@
       <c r="AF18" s="54"/>
       <c r="AG18" s="54"/>
       <c r="AH18" s="54"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
       <c r="AM18" s="56"/>
       <c r="AN18" s="56"/>
       <c r="AO18" s="56"/>
@@ -4716,10 +4632,10 @@
       <c r="AF19" s="54"/>
       <c r="AG19" s="54"/>
       <c r="AH19" s="54"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="77"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="77"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
       <c r="AM19" s="56"/>
       <c r="AN19" s="56"/>
       <c r="AO19" s="56"/>
@@ -4767,7 +4683,7 @@
       <c r="B20" s="30">
         <v>2</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="74" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="32"/>
@@ -4856,7 +4772,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E21" s="40">
         <v>44998</v>
@@ -4868,7 +4784,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="44"/>
@@ -4900,9 +4816,9 @@
       <c r="AJ21" s="60"/>
       <c r="AK21" s="60"/>
       <c r="AL21" s="60"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="56"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
       <c r="AP21" s="56"/>
       <c r="AQ21" s="56"/>
       <c r="AR21" s="56"/>
@@ -4951,7 +4867,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E22" s="40">
         <v>44998</v>
@@ -4963,7 +4879,7 @@
         <v>8</v>
       </c>
       <c r="H22" s="42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="52"/>
@@ -4996,8 +4912,8 @@
       <c r="AK22" s="60"/>
       <c r="AL22" s="60"/>
       <c r="AM22" s="56"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="81"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
       <c r="AP22" s="56"/>
       <c r="AQ22" s="56"/>
       <c r="AR22" s="56"/>
@@ -5025,12 +4941,12 @@
       <c r="BN22" s="57"/>
       <c r="BO22" s="57"/>
       <c r="BP22" s="57"/>
-      <c r="BQ22" s="54"/>
-      <c r="BR22" s="54"/>
-      <c r="BS22" s="54"/>
-      <c r="BT22" s="54"/>
-      <c r="BU22" s="54"/>
-      <c r="BV22" s="54"/>
+      <c r="BQ22" s="78"/>
+      <c r="BR22" s="78"/>
+      <c r="BS22" s="78"/>
+      <c r="BT22" s="78"/>
+      <c r="BU22" s="78"/>
+      <c r="BV22" s="78"/>
       <c r="BW22" s="54"/>
       <c r="BX22" s="54"/>
       <c r="BY22" s="54"/>
@@ -5046,7 +4962,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E23" s="40">
         <v>44999</v>
@@ -5058,14 +4974,14 @@
         <v>8</v>
       </c>
       <c r="H23" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="54"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="47"/>
       <c r="O23" s="52"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
@@ -5092,11 +5008,11 @@
       <c r="AL23" s="60"/>
       <c r="AM23" s="56"/>
       <c r="AN23" s="56"/>
-      <c r="AO23" s="81"/>
-      <c r="AP23" s="81"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="78"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="78"/>
       <c r="AT23" s="56"/>
       <c r="AU23" s="56"/>
       <c r="AV23" s="56"/>
@@ -5132,7 +5048,7 @@
       <c r="BZ23" s="58"/>
       <c r="CA23" s="37"/>
     </row>
-    <row r="24" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="37"/>
       <c r="B24" s="38">
         <v>2.4</v>
@@ -5141,7 +5057,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E24" s="40">
         <v>44999</v>
@@ -5153,13 +5069,13 @@
         <v>8</v>
       </c>
       <c r="H24" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="52"/>
       <c r="K24" s="54"/>
       <c r="L24" s="54"/>
-      <c r="M24" s="79"/>
+      <c r="M24" s="52"/>
       <c r="N24" s="54"/>
       <c r="O24" s="52"/>
       <c r="P24" s="54"/>
@@ -5185,16 +5101,16 @@
       <c r="AJ24" s="54"/>
       <c r="AK24" s="54"/>
       <c r="AL24" s="54"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="81"/>
-      <c r="AQ24" s="81"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
-      <c r="AT24" s="62"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="56"/>
+      <c r="AP24" s="56"/>
+      <c r="AQ24" s="56"/>
+      <c r="AR24" s="56"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="56"/>
       <c r="AW24" s="60"/>
       <c r="AX24" s="60"/>
       <c r="AY24" s="60"/>
@@ -5227,7 +5143,7 @@
       <c r="BZ24" s="64"/>
       <c r="CA24" s="37"/>
     </row>
-    <row r="25" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="37"/>
       <c r="B25" s="38">
         <v>2.5</v>
@@ -5236,7 +5152,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E25" s="40">
         <v>45000</v>
@@ -5248,13 +5164,13 @@
         <v>8</v>
       </c>
       <c r="H25" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="79"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="52"/>
       <c r="N25" s="54"/>
       <c r="O25" s="52"/>
       <c r="P25" s="54"/>
@@ -5280,17 +5196,17 @@
       <c r="AJ25" s="54"/>
       <c r="AK25" s="54"/>
       <c r="AL25" s="54"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="81"/>
-      <c r="AR25" s="81"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="60"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="78"/>
+      <c r="AW25" s="78"/>
       <c r="AX25" s="60"/>
       <c r="AY25" s="60"/>
       <c r="AZ25" s="60"/>
@@ -5328,10 +5244,10 @@
         <v>2.6</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E26" s="40">
         <v>45000</v>
@@ -5343,13 +5259,13 @@
         <v>8</v>
       </c>
       <c r="H26" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="47"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="52"/>
       <c r="N26" s="54"/>
       <c r="O26" s="52"/>
       <c r="P26" s="54"/>
@@ -5375,19 +5291,19 @@
       <c r="AJ26" s="60"/>
       <c r="AK26" s="54"/>
       <c r="AL26" s="60"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="81"/>
-      <c r="AS26" s="81"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="60"/>
-      <c r="AX26" s="60"/>
-      <c r="AY26" s="60"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="78"/>
+      <c r="AY26" s="78"/>
       <c r="AZ26" s="60"/>
       <c r="BA26" s="60"/>
       <c r="BB26" s="60"/>
@@ -5422,7 +5338,7 @@
       <c r="B27" s="30">
         <v>3</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="74" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="32"/>
@@ -5507,23 +5423,23 @@
       <c r="B28" s="38">
         <v>3.1</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="39" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E28" s="40">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="F28" s="40">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="G28" s="41">
         <v>8</v>
       </c>
       <c r="H28" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="43"/>
       <c r="J28" s="44"/>
@@ -5540,11 +5456,11 @@
       <c r="U28" s="46"/>
       <c r="V28" s="46"/>
       <c r="W28" s="46"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
       <c r="AC28" s="47"/>
       <c r="AD28" s="47"/>
       <c r="AE28" s="47"/>
@@ -5557,13 +5473,13 @@
       <c r="AL28" s="54"/>
       <c r="AM28" s="56"/>
       <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
       <c r="AR28" s="56"/>
       <c r="AS28" s="56"/>
-      <c r="AT28" s="81"/>
-      <c r="AU28" s="81"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
       <c r="AV28" s="56"/>
       <c r="AW28" s="54"/>
       <c r="AX28" s="54"/>
@@ -5602,23 +5518,23 @@
       <c r="B29" s="38">
         <v>3.2</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="67" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E29" s="40">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="F29" s="40">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="G29" s="41">
         <v>8</v>
       </c>
       <c r="H29" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="51"/>
       <c r="J29" s="52"/>
@@ -5635,11 +5551,11 @@
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
       <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
       <c r="AC29" s="54"/>
       <c r="AD29" s="54"/>
       <c r="AE29" s="54"/>
@@ -5658,15 +5574,15 @@
       <c r="AR29" s="56"/>
       <c r="AS29" s="56"/>
       <c r="AT29" s="56"/>
-      <c r="AU29" s="81"/>
-      <c r="AV29" s="81"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
       <c r="AW29" s="54"/>
       <c r="AX29" s="54"/>
       <c r="AY29" s="54"/>
       <c r="AZ29" s="54"/>
-      <c r="BA29" s="54"/>
-      <c r="BB29" s="54"/>
-      <c r="BC29" s="54"/>
+      <c r="BA29" s="78"/>
+      <c r="BB29" s="78"/>
+      <c r="BC29" s="78"/>
       <c r="BD29" s="54"/>
       <c r="BE29" s="54"/>
       <c r="BF29" s="54"/>
@@ -5692,49 +5608,49 @@
       <c r="BZ29" s="58"/>
       <c r="CA29" s="37"/>
     </row>
-    <row r="30" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="37"/>
       <c r="B30" s="38">
         <v>3.3</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="67" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E30" s="40">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="F30" s="40">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="G30" s="41">
         <v>8</v>
       </c>
-      <c r="H30" s="59">
-        <v>0</v>
+      <c r="H30" s="42">
+        <v>1</v>
       </c>
       <c r="I30" s="51"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="54"/>
       <c r="N30" s="54"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
       <c r="R30" s="54"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
       <c r="AC30" s="54"/>
       <c r="AD30" s="54"/>
       <c r="AE30" s="54"/>
@@ -5754,8 +5670,8 @@
       <c r="AS30" s="56"/>
       <c r="AT30" s="56"/>
       <c r="AU30" s="56"/>
-      <c r="AV30" s="81"/>
-      <c r="AW30" s="81"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="54"/>
       <c r="AX30" s="54"/>
       <c r="AY30" s="54"/>
       <c r="AZ30" s="54"/>
@@ -5779,9 +5695,9 @@
       <c r="BR30" s="54"/>
       <c r="BS30" s="54"/>
       <c r="BT30" s="54"/>
-      <c r="BU30" s="54"/>
-      <c r="BV30" s="54"/>
-      <c r="BW30" s="54"/>
+      <c r="BU30" s="78"/>
+      <c r="BV30" s="78"/>
+      <c r="BW30" s="78"/>
       <c r="BX30" s="54"/>
       <c r="BY30" s="54"/>
       <c r="BZ30" s="58"/>
@@ -5792,23 +5708,23 @@
       <c r="B31" s="38">
         <v>3.4</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="67" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E31" s="40">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="F31" s="40">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="G31" s="41">
         <v>8</v>
       </c>
       <c r="H31" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="51"/>
       <c r="J31" s="52"/>
@@ -5825,11 +5741,11 @@
       <c r="U31" s="55"/>
       <c r="V31" s="55"/>
       <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="55"/>
-      <c r="AB31" s="55"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
       <c r="AC31" s="54"/>
       <c r="AD31" s="54"/>
       <c r="AE31" s="54"/>
@@ -5850,8 +5766,8 @@
       <c r="AT31" s="56"/>
       <c r="AU31" s="56"/>
       <c r="AV31" s="56"/>
-      <c r="AW31" s="81"/>
-      <c r="AX31" s="81"/>
+      <c r="AW31" s="54"/>
+      <c r="AX31" s="54"/>
       <c r="AY31" s="54"/>
       <c r="AZ31" s="54"/>
       <c r="BA31" s="54"/>
@@ -5876,225 +5792,235 @@
       <c r="BT31" s="54"/>
       <c r="BU31" s="54"/>
       <c r="BV31" s="54"/>
-      <c r="BW31" s="54"/>
-      <c r="BX31" s="54"/>
-      <c r="BY31" s="54"/>
+      <c r="BW31" s="78"/>
+      <c r="BX31" s="78"/>
+      <c r="BY31" s="78"/>
       <c r="BZ31" s="58"/>
       <c r="CA31" s="37"/>
     </row>
-    <row r="32" spans="1:79" ht="21" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="30">
-        <v>4</v>
-      </c>
-      <c r="C32" s="76" t="s">
+    <row r="32" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="C32" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
-      <c r="AW32" s="36"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="36"/>
-      <c r="AZ32" s="36"/>
-      <c r="BA32" s="36"/>
-      <c r="BB32" s="36"/>
-      <c r="BC32" s="36"/>
-      <c r="BD32" s="36"/>
-      <c r="BE32" s="36"/>
-      <c r="BF32" s="36"/>
-      <c r="BG32" s="36"/>
-      <c r="BH32" s="36"/>
-      <c r="BI32" s="36"/>
-      <c r="BJ32" s="36"/>
-      <c r="BK32" s="36"/>
-      <c r="BL32" s="36"/>
-      <c r="BM32" s="36"/>
-      <c r="BN32" s="36"/>
-      <c r="BO32" s="36"/>
-      <c r="BP32" s="36"/>
-      <c r="BQ32" s="36"/>
-      <c r="BR32" s="36"/>
-      <c r="BS32" s="36"/>
-      <c r="BT32" s="36"/>
-      <c r="BU32" s="36"/>
-      <c r="BV32" s="36"/>
-      <c r="BW32" s="36"/>
-      <c r="BX32" s="36"/>
-      <c r="BY32" s="36"/>
-      <c r="BZ32" s="36"/>
-      <c r="CA32" s="22"/>
+      <c r="D32" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="40">
+        <v>45007</v>
+      </c>
+      <c r="F32" s="40">
+        <v>45007</v>
+      </c>
+      <c r="G32" s="41">
+        <v>8</v>
+      </c>
+      <c r="H32" s="42">
+        <v>1</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54"/>
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="54"/>
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="54"/>
+      <c r="BB32" s="54"/>
+      <c r="BC32" s="54"/>
+      <c r="BD32" s="54"/>
+      <c r="BE32" s="54"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="78"/>
+      <c r="BH32" s="78"/>
+      <c r="BI32" s="78"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
+      <c r="BP32" s="63"/>
+      <c r="BQ32" s="60"/>
+      <c r="BR32" s="60"/>
+      <c r="BS32" s="60"/>
+      <c r="BT32" s="60"/>
+      <c r="BU32" s="60"/>
+      <c r="BV32" s="60"/>
+      <c r="BW32" s="60"/>
+      <c r="BX32" s="60"/>
+      <c r="BY32" s="60"/>
+      <c r="BZ32" s="64"/>
+      <c r="CA32" s="37"/>
     </row>
-    <row r="33" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="37"/>
       <c r="B33" s="38">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C33" s="39" t="s">
+        <v>3.6</v>
+      </c>
+      <c r="C33" s="67" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E33" s="40">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="F33" s="40">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="G33" s="41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H33" s="42">
-        <v>0</v>
-      </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="51"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
       <c r="X33" s="46"/>
       <c r="Y33" s="46"/>
       <c r="Z33" s="46"/>
       <c r="AA33" s="46"/>
       <c r="AB33" s="46"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="54"/>
-      <c r="AX33" s="81"/>
-      <c r="AY33" s="81"/>
-      <c r="AZ33" s="54"/>
-      <c r="BA33" s="54"/>
-      <c r="BB33" s="54"/>
-      <c r="BC33" s="54"/>
-      <c r="BD33" s="54"/>
-      <c r="BE33" s="54"/>
-      <c r="BF33" s="54"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
-      <c r="BP33" s="57"/>
-      <c r="BQ33" s="54"/>
-      <c r="BR33" s="54"/>
-      <c r="BS33" s="54"/>
-      <c r="BT33" s="54"/>
-      <c r="BU33" s="54"/>
-      <c r="BV33" s="54"/>
-      <c r="BW33" s="54"/>
-      <c r="BX33" s="54"/>
-      <c r="BY33" s="54"/>
-      <c r="BZ33" s="58"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="60"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="60"/>
+      <c r="AX33" s="60"/>
+      <c r="AY33" s="60"/>
+      <c r="AZ33" s="60"/>
+      <c r="BA33" s="60"/>
+      <c r="BB33" s="60"/>
+      <c r="BC33" s="60"/>
+      <c r="BD33" s="60"/>
+      <c r="BE33" s="60"/>
+      <c r="BF33" s="60"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="78"/>
+      <c r="BJ33" s="78"/>
+      <c r="BK33" s="78"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="63"/>
+      <c r="BO33" s="63"/>
+      <c r="BP33" s="63"/>
+      <c r="BQ33" s="60"/>
+      <c r="BR33" s="60"/>
+      <c r="BS33" s="60"/>
+      <c r="BT33" s="60"/>
+      <c r="BU33" s="60"/>
+      <c r="BV33" s="60"/>
+      <c r="BW33" s="60"/>
+      <c r="BX33" s="60"/>
+      <c r="BY33" s="60"/>
+      <c r="BZ33" s="64"/>
       <c r="CA33" s="37"/>
     </row>
-    <row r="34" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="37"/>
       <c r="B34" s="38">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="C34" s="67" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E34" s="40">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="F34" s="40">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="G34" s="41">
         <v>8</v>
       </c>
       <c r="H34" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="51"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
       <c r="M34" s="54"/>
       <c r="N34" s="54"/>
       <c r="O34" s="52"/>
       <c r="P34" s="54"/>
       <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
+      <c r="R34" s="60"/>
       <c r="S34" s="73"/>
       <c r="T34" s="55"/>
       <c r="U34" s="55"/>
@@ -6110,75 +6036,75 @@
       <c r="AE34" s="54"/>
       <c r="AF34" s="54"/>
       <c r="AG34" s="54"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="81"/>
-      <c r="AZ34" s="81"/>
-      <c r="BA34" s="54"/>
-      <c r="BB34" s="54"/>
-      <c r="BC34" s="54"/>
-      <c r="BD34" s="54"/>
-      <c r="BE34" s="54"/>
-      <c r="BF34" s="54"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
-      <c r="BN34" s="57"/>
-      <c r="BO34" s="57"/>
-      <c r="BP34" s="57"/>
-      <c r="BQ34" s="54"/>
-      <c r="BR34" s="54"/>
-      <c r="BS34" s="54"/>
-      <c r="BT34" s="54"/>
-      <c r="BU34" s="54"/>
-      <c r="BV34" s="54"/>
-      <c r="BW34" s="54"/>
-      <c r="BX34" s="54"/>
-      <c r="BY34" s="54"/>
-      <c r="BZ34" s="58"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="60"/>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="62"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="62"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="60"/>
+      <c r="AX34" s="60"/>
+      <c r="AY34" s="60"/>
+      <c r="AZ34" s="60"/>
+      <c r="BA34" s="60"/>
+      <c r="BB34" s="60"/>
+      <c r="BC34" s="60"/>
+      <c r="BD34" s="60"/>
+      <c r="BE34" s="60"/>
+      <c r="BF34" s="60"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="63"/>
+      <c r="BK34" s="78"/>
+      <c r="BL34" s="78"/>
+      <c r="BM34" s="78"/>
+      <c r="BN34" s="63"/>
+      <c r="BO34" s="63"/>
+      <c r="BP34" s="63"/>
+      <c r="BQ34" s="60"/>
+      <c r="BR34" s="60"/>
+      <c r="BS34" s="60"/>
+      <c r="BT34" s="60"/>
+      <c r="BU34" s="60"/>
+      <c r="BV34" s="60"/>
+      <c r="BW34" s="60"/>
+      <c r="BX34" s="60"/>
+      <c r="BY34" s="60"/>
+      <c r="BZ34" s="64"/>
       <c r="CA34" s="37"/>
     </row>
-    <row r="35" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="C35" s="67" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E35" s="40">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="F35" s="40">
-        <v>45006</v>
+        <v>45012</v>
       </c>
       <c r="G35" s="41">
         <v>8</v>
       </c>
-      <c r="H35" s="42">
-        <v>0</v>
+      <c r="H35" s="59">
+        <v>1</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="52"/>
@@ -6189,7 +6115,7 @@
       <c r="O35" s="52"/>
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
+      <c r="R35" s="60"/>
       <c r="S35" s="73"/>
       <c r="T35" s="55"/>
       <c r="U35" s="55"/>
@@ -6205,170 +6131,160 @@
       <c r="AE35" s="54"/>
       <c r="AF35" s="54"/>
       <c r="AG35" s="54"/>
-      <c r="AH35" s="54"/>
-      <c r="AI35" s="54"/>
-      <c r="AJ35" s="54"/>
-      <c r="AK35" s="54"/>
-      <c r="AL35" s="54"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="54"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="81"/>
-      <c r="BA35" s="81"/>
-      <c r="BB35" s="54"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="54"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="54"/>
-      <c r="BG35" s="57"/>
-      <c r="BH35" s="57"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="57"/>
-      <c r="BK35" s="57"/>
-      <c r="BL35" s="57"/>
-      <c r="BM35" s="57"/>
-      <c r="BN35" s="57"/>
-      <c r="BO35" s="57"/>
-      <c r="BP35" s="57"/>
-      <c r="BQ35" s="54"/>
-      <c r="BR35" s="54"/>
-      <c r="BS35" s="54"/>
-      <c r="BT35" s="54"/>
-      <c r="BU35" s="54"/>
-      <c r="BV35" s="54"/>
-      <c r="BW35" s="54"/>
-      <c r="BX35" s="54"/>
-      <c r="BY35" s="54"/>
-      <c r="BZ35" s="58"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="62"/>
+      <c r="AT35" s="62"/>
+      <c r="AU35" s="62"/>
+      <c r="AV35" s="62"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="60"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="63"/>
+      <c r="BJ35" s="63"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="78"/>
+      <c r="BN35" s="78"/>
+      <c r="BO35" s="78"/>
+      <c r="BP35" s="63"/>
+      <c r="BQ35" s="60"/>
+      <c r="BR35" s="60"/>
+      <c r="BS35" s="60"/>
+      <c r="BT35" s="60"/>
+      <c r="BU35" s="60"/>
+      <c r="BV35" s="60"/>
+      <c r="BW35" s="60"/>
+      <c r="BX35" s="60"/>
+      <c r="BY35" s="60"/>
+      <c r="BZ35" s="64"/>
       <c r="CA35" s="37"/>
     </row>
-    <row r="36" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C36" s="67" t="s">
+    <row r="36" spans="1:79" s="76" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="22"/>
+      <c r="B36" s="30">
+        <v>4</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="40">
-        <v>45006</v>
-      </c>
-      <c r="F36" s="40">
-        <v>45007</v>
-      </c>
-      <c r="G36" s="41">
-        <v>8</v>
-      </c>
-      <c r="H36" s="42">
-        <v>0</v>
-      </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54"/>
-      <c r="AG36" s="54"/>
-      <c r="AH36" s="54"/>
-      <c r="AI36" s="54"/>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="54"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="54"/>
-      <c r="AX36" s="54"/>
-      <c r="AY36" s="54"/>
-      <c r="AZ36" s="54"/>
-      <c r="BA36" s="81"/>
-      <c r="BB36" s="81"/>
-      <c r="BC36" s="54"/>
-      <c r="BD36" s="54"/>
-      <c r="BE36" s="54"/>
-      <c r="BF36" s="54"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="57"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="57"/>
-      <c r="BK36" s="57"/>
-      <c r="BL36" s="57"/>
-      <c r="BM36" s="57"/>
-      <c r="BN36" s="57"/>
-      <c r="BO36" s="57"/>
-      <c r="BP36" s="57"/>
-      <c r="BQ36" s="54"/>
-      <c r="BR36" s="54"/>
-      <c r="BS36" s="54"/>
-      <c r="BT36" s="54"/>
-      <c r="BU36" s="54"/>
-      <c r="BV36" s="54"/>
-      <c r="BW36" s="54"/>
-      <c r="BX36" s="54"/>
-      <c r="BY36" s="54"/>
-      <c r="BZ36" s="58"/>
-      <c r="CA36" s="37"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
+      <c r="BF36" s="36"/>
+      <c r="BG36" s="36"/>
+      <c r="BH36" s="36"/>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="36"/>
+      <c r="BK36" s="36"/>
+      <c r="BL36" s="36"/>
+      <c r="BM36" s="36"/>
+      <c r="BN36" s="36"/>
+      <c r="BO36" s="36"/>
+      <c r="BP36" s="36"/>
+      <c r="BQ36" s="36"/>
+      <c r="BR36" s="36"/>
+      <c r="BS36" s="36"/>
+      <c r="BT36" s="36"/>
+      <c r="BU36" s="36"/>
+      <c r="BV36" s="36"/>
+      <c r="BW36" s="36"/>
+      <c r="BX36" s="36"/>
+      <c r="BY36" s="36"/>
+      <c r="BZ36" s="36"/>
+      <c r="CA36" s="22"/>
     </row>
-    <row r="37" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A37" s="37"/>
       <c r="B37" s="38">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C37" s="67" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E37" s="40">
-        <v>45007</v>
+        <v>45012</v>
       </c>
       <c r="F37" s="40">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="G37" s="41">
         <v>8</v>
       </c>
-      <c r="H37" s="42">
-        <v>0</v>
+      <c r="H37" s="59">
+        <v>1</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="52"/>
@@ -6415,22 +6331,22 @@
       <c r="AY37" s="60"/>
       <c r="AZ37" s="60"/>
       <c r="BA37" s="60"/>
-      <c r="BB37" s="81"/>
-      <c r="BC37" s="81"/>
+      <c r="BB37" s="60"/>
+      <c r="BC37" s="60"/>
       <c r="BD37" s="60"/>
       <c r="BE37" s="60"/>
       <c r="BF37" s="60"/>
-      <c r="BG37" s="63"/>
-      <c r="BH37" s="63"/>
-      <c r="BI37" s="63"/>
-      <c r="BJ37" s="63"/>
-      <c r="BK37" s="63"/>
-      <c r="BL37" s="63"/>
-      <c r="BM37" s="63"/>
-      <c r="BN37" s="63"/>
-      <c r="BO37" s="63"/>
-      <c r="BP37" s="63"/>
-      <c r="BQ37" s="60"/>
+      <c r="BG37" s="57"/>
+      <c r="BH37" s="57"/>
+      <c r="BI37" s="57"/>
+      <c r="BJ37" s="57"/>
+      <c r="BK37" s="57"/>
+      <c r="BL37" s="57"/>
+      <c r="BM37" s="57"/>
+      <c r="BN37" s="57"/>
+      <c r="BO37" s="78"/>
+      <c r="BP37" s="78"/>
+      <c r="BQ37" s="78"/>
       <c r="BR37" s="60"/>
       <c r="BS37" s="60"/>
       <c r="BT37" s="60"/>
@@ -6442,28 +6358,28 @@
       <c r="BZ37" s="64"/>
       <c r="CA37" s="37"/>
     </row>
-    <row r="38" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A38" s="37"/>
       <c r="B38" s="38">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C38" s="67" t="s">
         <v>62</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E38" s="40">
-        <v>45007</v>
+        <v>45013</v>
       </c>
       <c r="F38" s="40">
-        <v>45009</v>
+        <v>45014</v>
       </c>
       <c r="G38" s="41">
-        <v>12</v>
-      </c>
-      <c r="H38" s="42">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H38" s="59">
+        <v>1</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="52"/>
@@ -6511,9 +6427,9 @@
       <c r="AZ38" s="60"/>
       <c r="BA38" s="60"/>
       <c r="BB38" s="60"/>
-      <c r="BC38" s="81"/>
-      <c r="BD38" s="81"/>
-      <c r="BE38" s="81"/>
+      <c r="BC38" s="60"/>
+      <c r="BD38" s="60"/>
+      <c r="BE38" s="60"/>
       <c r="BF38" s="60"/>
       <c r="BG38" s="63"/>
       <c r="BH38" s="63"/>
@@ -6525,9 +6441,9 @@
       <c r="BN38" s="63"/>
       <c r="BO38" s="63"/>
       <c r="BP38" s="63"/>
-      <c r="BQ38" s="60"/>
-      <c r="BR38" s="60"/>
-      <c r="BS38" s="60"/>
+      <c r="BQ38" s="78"/>
+      <c r="BR38" s="78"/>
+      <c r="BS38" s="78"/>
       <c r="BT38" s="60"/>
       <c r="BU38" s="60"/>
       <c r="BV38" s="60"/>
@@ -6537,28 +6453,28 @@
       <c r="BZ38" s="64"/>
       <c r="CA38" s="37"/>
     </row>
-    <row r="39" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="39" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A39" s="37"/>
       <c r="B39" s="38">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C39" s="67" t="s">
         <v>63</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E39" s="40">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="F39" s="40">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="G39" s="41">
         <v>8</v>
       </c>
-      <c r="H39" s="42">
-        <v>0</v>
+      <c r="H39" s="59">
+        <v>1</v>
       </c>
       <c r="I39" s="51"/>
       <c r="J39" s="52"/>
@@ -6608,8 +6524,8 @@
       <c r="BB39" s="60"/>
       <c r="BC39" s="60"/>
       <c r="BD39" s="60"/>
-      <c r="BE39" s="81"/>
-      <c r="BF39" s="81"/>
+      <c r="BE39" s="60"/>
+      <c r="BF39" s="60"/>
       <c r="BG39" s="63"/>
       <c r="BH39" s="63"/>
       <c r="BI39" s="63"/>
@@ -6622,9 +6538,9 @@
       <c r="BP39" s="63"/>
       <c r="BQ39" s="60"/>
       <c r="BR39" s="60"/>
-      <c r="BS39" s="60"/>
-      <c r="BT39" s="60"/>
-      <c r="BU39" s="60"/>
+      <c r="BS39" s="78"/>
+      <c r="BT39" s="78"/>
+      <c r="BU39" s="78"/>
       <c r="BV39" s="60"/>
       <c r="BW39" s="60"/>
       <c r="BX39" s="60"/>
@@ -6632,28 +6548,28 @@
       <c r="BZ39" s="64"/>
       <c r="CA39" s="37"/>
     </row>
-    <row r="40" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="40" spans="1:79" s="76" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A40" s="37"/>
       <c r="B40" s="38">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C40" s="67" t="s">
         <v>64</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E40" s="40">
-        <v>45009</v>
+        <v>45014</v>
       </c>
       <c r="F40" s="40">
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="G40" s="41">
         <v>8</v>
       </c>
       <c r="H40" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="51"/>
       <c r="J40" s="52"/>
@@ -6704,8 +6620,8 @@
       <c r="BC40" s="60"/>
       <c r="BD40" s="60"/>
       <c r="BE40" s="60"/>
-      <c r="BF40" s="81"/>
-      <c r="BG40" s="81"/>
+      <c r="BF40" s="60"/>
+      <c r="BG40" s="63"/>
       <c r="BH40" s="63"/>
       <c r="BI40" s="63"/>
       <c r="BJ40" s="63"/>
@@ -6719,20 +6635,20 @@
       <c r="BR40" s="60"/>
       <c r="BS40" s="60"/>
       <c r="BT40" s="60"/>
-      <c r="BU40" s="60"/>
-      <c r="BV40" s="60"/>
-      <c r="BW40" s="60"/>
+      <c r="BU40" s="78"/>
+      <c r="BV40" s="78"/>
+      <c r="BW40" s="78"/>
       <c r="BX40" s="60"/>
       <c r="BY40" s="60"/>
       <c r="BZ40" s="64"/>
       <c r="CA40" s="37"/>
     </row>
-    <row r="41" spans="1:79" s="78" customFormat="1" ht="21" customHeight="1">
+    <row r="41" spans="1:79" s="76" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="22"/>
       <c r="B41" s="30">
         <v>5</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="74" t="s">
         <v>65</v>
       </c>
       <c r="D41" s="32"/>
@@ -6812,26 +6728,28 @@
       <c r="BZ41" s="36"/>
       <c r="CA41" s="22"/>
     </row>
-    <row r="42" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
+      <c r="B42" s="38">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="C42" s="67" t="s">
         <v>66</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E42" s="40">
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="F42" s="40">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="G42" s="41">
         <v>8</v>
       </c>
       <c r="H42" s="59">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I42" s="51"/>
       <c r="J42" s="52"/>
@@ -6883,15 +6801,15 @@
       <c r="BD42" s="60"/>
       <c r="BE42" s="60"/>
       <c r="BF42" s="60"/>
-      <c r="BG42" s="81"/>
-      <c r="BH42" s="81"/>
-      <c r="BI42" s="81"/>
-      <c r="BJ42" s="63"/>
-      <c r="BK42" s="63"/>
-      <c r="BL42" s="63"/>
-      <c r="BM42" s="63"/>
-      <c r="BN42" s="63"/>
-      <c r="BO42" s="63"/>
+      <c r="BG42" s="57"/>
+      <c r="BH42" s="57"/>
+      <c r="BI42" s="57"/>
+      <c r="BJ42" s="57"/>
+      <c r="BK42" s="57"/>
+      <c r="BL42" s="57"/>
+      <c r="BM42" s="57"/>
+      <c r="BN42" s="57"/>
+      <c r="BO42" s="57"/>
       <c r="BP42" s="63"/>
       <c r="BQ42" s="60"/>
       <c r="BR42" s="60"/>
@@ -6905,26 +6823,28 @@
       <c r="BZ42" s="64"/>
       <c r="CA42" s="37"/>
     </row>
-    <row r="43" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="43" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
+      <c r="B43" s="38">
+        <v>5.2</v>
+      </c>
       <c r="C43" s="67" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E43" s="40">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="F43" s="40">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="G43" s="41">
         <v>8</v>
       </c>
       <c r="H43" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="51"/>
       <c r="J43" s="52"/>
@@ -6978,9 +6898,9 @@
       <c r="BF43" s="60"/>
       <c r="BG43" s="63"/>
       <c r="BH43" s="63"/>
-      <c r="BI43" s="81"/>
-      <c r="BJ43" s="81"/>
-      <c r="BK43" s="81"/>
+      <c r="BI43" s="63"/>
+      <c r="BJ43" s="63"/>
+      <c r="BK43" s="63"/>
       <c r="BL43" s="63"/>
       <c r="BM43" s="63"/>
       <c r="BN43" s="63"/>
@@ -6998,119 +6918,113 @@
       <c r="BZ43" s="64"/>
       <c r="CA43" s="37"/>
     </row>
-    <row r="44" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="40">
-        <v>45013</v>
-      </c>
-      <c r="F44" s="40">
-        <v>45015</v>
-      </c>
-      <c r="G44" s="41">
-        <v>8</v>
-      </c>
-      <c r="H44" s="59">
-        <v>0</v>
-      </c>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="60"/>
-      <c r="AX44" s="60"/>
-      <c r="AY44" s="60"/>
-      <c r="AZ44" s="60"/>
-      <c r="BA44" s="60"/>
-      <c r="BB44" s="60"/>
-      <c r="BC44" s="60"/>
-      <c r="BD44" s="60"/>
-      <c r="BE44" s="60"/>
-      <c r="BF44" s="60"/>
-      <c r="BG44" s="63"/>
-      <c r="BH44" s="63"/>
-      <c r="BI44" s="63"/>
-      <c r="BJ44" s="63"/>
-      <c r="BK44" s="81"/>
-      <c r="BL44" s="81"/>
-      <c r="BM44" s="81"/>
-      <c r="BN44" s="63"/>
-      <c r="BO44" s="63"/>
-      <c r="BP44" s="63"/>
-      <c r="BQ44" s="60"/>
-      <c r="BR44" s="60"/>
-      <c r="BS44" s="60"/>
-      <c r="BT44" s="60"/>
-      <c r="BU44" s="60"/>
-      <c r="BV44" s="60"/>
-      <c r="BW44" s="60"/>
-      <c r="BX44" s="60"/>
-      <c r="BY44" s="60"/>
-      <c r="BZ44" s="64"/>
-      <c r="CA44" s="37"/>
+    <row r="44" spans="1:79" s="76" customFormat="1" ht="21" customHeight="1">
+      <c r="A44" s="22"/>
+      <c r="B44" s="30">
+        <v>6</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AK44" s="36"/>
+      <c r="AL44" s="36"/>
+      <c r="AM44" s="36"/>
+      <c r="AN44" s="36"/>
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="36"/>
+      <c r="AQ44" s="36"/>
+      <c r="AR44" s="36"/>
+      <c r="AS44" s="36"/>
+      <c r="AT44" s="36"/>
+      <c r="AU44" s="36"/>
+      <c r="AV44" s="36"/>
+      <c r="AW44" s="36"/>
+      <c r="AX44" s="36"/>
+      <c r="AY44" s="36"/>
+      <c r="AZ44" s="36"/>
+      <c r="BA44" s="36"/>
+      <c r="BB44" s="36"/>
+      <c r="BC44" s="36"/>
+      <c r="BD44" s="36"/>
+      <c r="BE44" s="36"/>
+      <c r="BF44" s="36"/>
+      <c r="BG44" s="36"/>
+      <c r="BH44" s="36"/>
+      <c r="BI44" s="36"/>
+      <c r="BJ44" s="36"/>
+      <c r="BK44" s="36"/>
+      <c r="BL44" s="36"/>
+      <c r="BM44" s="36"/>
+      <c r="BN44" s="36"/>
+      <c r="BO44" s="36"/>
+      <c r="BP44" s="36"/>
+      <c r="BQ44" s="36"/>
+      <c r="BR44" s="36"/>
+      <c r="BS44" s="36"/>
+      <c r="BT44" s="36"/>
+      <c r="BU44" s="36"/>
+      <c r="BV44" s="36"/>
+      <c r="BW44" s="36"/>
+      <c r="BX44" s="36"/>
+      <c r="BY44" s="36"/>
+      <c r="BZ44" s="36"/>
+      <c r="CA44" s="22"/>
     </row>
-    <row r="45" spans="1:79" s="78" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
+    <row r="45" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
+      <c r="B45" s="38">
+        <v>6.1</v>
+      </c>
       <c r="C45" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="E45" s="40">
-        <v>45014</v>
+        <v>44998</v>
       </c>
       <c r="F45" s="40">
-        <v>45015</v>
+        <v>44999</v>
       </c>
       <c r="G45" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H45" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="52"/>
@@ -7128,13 +7042,13 @@
       <c r="V45" s="55"/>
       <c r="W45" s="55"/>
       <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="54"/>
-      <c r="AE45" s="54"/>
+      <c r="Y45" s="129"/>
+      <c r="Z45" s="129"/>
+      <c r="AA45" s="129"/>
+      <c r="AB45" s="129"/>
+      <c r="AC45" s="130"/>
+      <c r="AD45" s="130"/>
+      <c r="AE45" s="130"/>
       <c r="AF45" s="54"/>
       <c r="AG45" s="54"/>
       <c r="AH45" s="60"/>
@@ -7167,9 +7081,9 @@
       <c r="BI45" s="63"/>
       <c r="BJ45" s="63"/>
       <c r="BK45" s="63"/>
-      <c r="BL45" s="81"/>
-      <c r="BM45" s="81"/>
-      <c r="BN45" s="81"/>
+      <c r="BL45" s="63"/>
+      <c r="BM45" s="63"/>
+      <c r="BN45" s="63"/>
       <c r="BO45" s="63"/>
       <c r="BP45" s="63"/>
       <c r="BQ45" s="60"/>
@@ -7184,111 +7098,123 @@
       <c r="BZ45" s="64"/>
       <c r="CA45" s="37"/>
     </row>
-    <row r="46" spans="1:79" s="78" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="30">
-        <v>6</v>
-      </c>
-      <c r="C46" s="76" t="s">
+    <row r="46" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="38">
+        <v>6.2</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="40">
+        <v>44999</v>
+      </c>
+      <c r="F46" s="40">
+        <v>45001</v>
+      </c>
+      <c r="G46" s="41">
+        <v>16</v>
+      </c>
+      <c r="H46" s="59">
+        <v>1</v>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="130"/>
+      <c r="AF46" s="130"/>
+      <c r="AG46" s="130"/>
+      <c r="AH46" s="130"/>
+      <c r="AI46" s="130"/>
+      <c r="AJ46" s="130"/>
+      <c r="AK46" s="130"/>
+      <c r="AL46" s="130"/>
+      <c r="AM46" s="130"/>
+      <c r="AN46" s="130"/>
+      <c r="AO46" s="62"/>
+      <c r="AP46" s="62"/>
+      <c r="AQ46" s="62"/>
+      <c r="AR46" s="62"/>
+      <c r="AS46" s="62"/>
+      <c r="AT46" s="62"/>
+      <c r="AU46" s="62"/>
+      <c r="AV46" s="62"/>
+      <c r="AW46" s="60"/>
+      <c r="AX46" s="60"/>
+      <c r="AY46" s="60"/>
+      <c r="AZ46" s="60"/>
+      <c r="BA46" s="60"/>
+      <c r="BB46" s="60"/>
+      <c r="BC46" s="60"/>
+      <c r="BD46" s="60"/>
+      <c r="BE46" s="60"/>
+      <c r="BF46" s="60"/>
+      <c r="BG46" s="63"/>
+      <c r="BH46" s="63"/>
+      <c r="BI46" s="63"/>
+      <c r="BJ46" s="63"/>
+      <c r="BK46" s="63"/>
+      <c r="BL46" s="63"/>
+      <c r="BM46" s="63"/>
+      <c r="BN46" s="63"/>
+      <c r="BO46" s="63"/>
+      <c r="BP46" s="63"/>
+      <c r="BQ46" s="60"/>
+      <c r="BR46" s="60"/>
+      <c r="BS46" s="60"/>
+      <c r="BT46" s="60"/>
+      <c r="BU46" s="60"/>
+      <c r="BV46" s="60"/>
+      <c r="BW46" s="60"/>
+      <c r="BX46" s="60"/>
+      <c r="BY46" s="60"/>
+      <c r="BZ46" s="64"/>
+      <c r="CA46" s="37"/>
+    </row>
+    <row r="47" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A47" s="37"/>
+      <c r="B47" s="38">
+        <v>6.3</v>
+      </c>
+      <c r="C47" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="36"/>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36"/>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="36"/>
-      <c r="AW46" s="36"/>
-      <c r="AX46" s="36"/>
-      <c r="AY46" s="36"/>
-      <c r="AZ46" s="36"/>
-      <c r="BA46" s="36"/>
-      <c r="BB46" s="36"/>
-      <c r="BC46" s="36"/>
-      <c r="BD46" s="36"/>
-      <c r="BE46" s="36"/>
-      <c r="BF46" s="36"/>
-      <c r="BG46" s="36"/>
-      <c r="BH46" s="36"/>
-      <c r="BI46" s="36"/>
-      <c r="BJ46" s="36"/>
-      <c r="BK46" s="36"/>
-      <c r="BL46" s="36"/>
-      <c r="BM46" s="36"/>
-      <c r="BN46" s="36"/>
-      <c r="BO46" s="36"/>
-      <c r="BP46" s="36"/>
-      <c r="BQ46" s="36"/>
-      <c r="BR46" s="36"/>
-      <c r="BS46" s="36"/>
-      <c r="BT46" s="36"/>
-      <c r="BU46" s="36"/>
-      <c r="BV46" s="36"/>
-      <c r="BW46" s="36"/>
-      <c r="BX46" s="36"/>
-      <c r="BY46" s="36"/>
-      <c r="BZ46" s="36"/>
-      <c r="CA46" s="22"/>
-    </row>
-    <row r="47" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>94</v>
+      <c r="D47" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="E47" s="40">
-        <v>45015</v>
+        <v>44999</v>
       </c>
       <c r="F47" s="40">
-        <v>45016</v>
+        <v>45000</v>
       </c>
       <c r="G47" s="41">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="H47" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="51"/>
       <c r="J47" s="52"/>
@@ -7318,26 +7244,26 @@
       <c r="AH47" s="60"/>
       <c r="AI47" s="60"/>
       <c r="AJ47" s="60"/>
-      <c r="AK47" s="60"/>
-      <c r="AL47" s="60"/>
-      <c r="AM47" s="62"/>
-      <c r="AN47" s="62"/>
-      <c r="AO47" s="62"/>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="62"/>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="62"/>
-      <c r="AV47" s="62"/>
-      <c r="AW47" s="60"/>
-      <c r="AX47" s="60"/>
-      <c r="AY47" s="60"/>
-      <c r="AZ47" s="60"/>
-      <c r="BA47" s="60"/>
-      <c r="BB47" s="60"/>
-      <c r="BC47" s="60"/>
-      <c r="BD47" s="60"/>
+      <c r="AK47" s="130"/>
+      <c r="AL47" s="130"/>
+      <c r="AM47" s="130"/>
+      <c r="AN47" s="130"/>
+      <c r="AO47" s="130"/>
+      <c r="AP47" s="130"/>
+      <c r="AQ47" s="130"/>
+      <c r="AR47" s="130"/>
+      <c r="AS47" s="130"/>
+      <c r="AT47" s="130"/>
+      <c r="AU47" s="130"/>
+      <c r="AV47" s="130"/>
+      <c r="AW47" s="130"/>
+      <c r="AX47" s="130"/>
+      <c r="AY47" s="130"/>
+      <c r="AZ47" s="130"/>
+      <c r="BA47" s="130"/>
+      <c r="BB47" s="130"/>
+      <c r="BC47" s="130"/>
+      <c r="BD47" s="130"/>
       <c r="BE47" s="60"/>
       <c r="BF47" s="60"/>
       <c r="BG47" s="63"/>
@@ -7347,8 +7273,8 @@
       <c r="BK47" s="63"/>
       <c r="BL47" s="63"/>
       <c r="BM47" s="63"/>
-      <c r="BN47" s="81"/>
-      <c r="BO47" s="81"/>
+      <c r="BN47" s="63"/>
+      <c r="BO47" s="63"/>
       <c r="BP47" s="63"/>
       <c r="BQ47" s="60"/>
       <c r="BR47" s="60"/>
@@ -7362,26 +7288,28 @@
       <c r="BZ47" s="64"/>
       <c r="CA47" s="37"/>
     </row>
-    <row r="48" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="38">
+        <v>6.4</v>
+      </c>
       <c r="C48" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>94</v>
+        <v>71</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="40">
-        <v>45016</v>
+        <v>45000</v>
       </c>
       <c r="F48" s="40">
-        <v>45016</v>
+        <v>45001</v>
       </c>
       <c r="G48" s="41">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H48" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="51"/>
       <c r="J48" s="52"/>
@@ -7429,20 +7357,20 @@
       <c r="AZ48" s="60"/>
       <c r="BA48" s="60"/>
       <c r="BB48" s="60"/>
-      <c r="BC48" s="60"/>
-      <c r="BD48" s="60"/>
-      <c r="BE48" s="60"/>
-      <c r="BF48" s="60"/>
-      <c r="BG48" s="63"/>
-      <c r="BH48" s="63"/>
+      <c r="BC48" s="130"/>
+      <c r="BD48" s="130"/>
+      <c r="BE48" s="130"/>
+      <c r="BF48" s="130"/>
+      <c r="BG48" s="130"/>
+      <c r="BH48" s="130"/>
       <c r="BI48" s="63"/>
       <c r="BJ48" s="63"/>
       <c r="BK48" s="63"/>
       <c r="BL48" s="63"/>
       <c r="BM48" s="63"/>
       <c r="BN48" s="63"/>
-      <c r="BO48" s="81"/>
-      <c r="BP48" s="81"/>
+      <c r="BO48" s="63"/>
+      <c r="BP48" s="63"/>
       <c r="BQ48" s="60"/>
       <c r="BR48" s="60"/>
       <c r="BS48" s="60"/>
@@ -7455,209 +7383,213 @@
       <c r="BZ48" s="64"/>
       <c r="CA48" s="37"/>
     </row>
-    <row r="49" spans="1:79" s="78" customFormat="1" ht="21" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="30">
+    <row r="49" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38">
+        <v>6.5</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="40">
+        <v>45001</v>
+      </c>
+      <c r="F49" s="40">
+        <v>45002</v>
+      </c>
+      <c r="G49" s="41">
+        <v>24</v>
+      </c>
+      <c r="H49" s="59">
+        <v>1</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="54"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="54"/>
+      <c r="AF49" s="54"/>
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="130"/>
+      <c r="AJ49" s="130"/>
+      <c r="AK49" s="130"/>
+      <c r="AL49" s="130"/>
+      <c r="AM49" s="130"/>
+      <c r="AN49" s="130"/>
+      <c r="AO49" s="62"/>
+      <c r="AP49" s="62"/>
+      <c r="AQ49" s="62"/>
+      <c r="AR49" s="62"/>
+      <c r="AS49" s="62"/>
+      <c r="AT49" s="62"/>
+      <c r="AU49" s="62"/>
+      <c r="AV49" s="62"/>
+      <c r="AW49" s="60"/>
+      <c r="AX49" s="60"/>
+      <c r="AY49" s="60"/>
+      <c r="AZ49" s="60"/>
+      <c r="BA49" s="60"/>
+      <c r="BB49" s="60"/>
+      <c r="BC49" s="60"/>
+      <c r="BD49" s="60"/>
+      <c r="BE49" s="60"/>
+      <c r="BF49" s="60"/>
+      <c r="BG49" s="63"/>
+      <c r="BH49" s="63"/>
+      <c r="BI49" s="63"/>
+      <c r="BJ49" s="63"/>
+      <c r="BK49" s="63"/>
+      <c r="BL49" s="63"/>
+      <c r="BM49" s="63"/>
+      <c r="BN49" s="63"/>
+      <c r="BO49" s="63"/>
+      <c r="BP49" s="63"/>
+      <c r="BQ49" s="60"/>
+      <c r="BR49" s="60"/>
+      <c r="BS49" s="60"/>
+      <c r="BT49" s="60"/>
+      <c r="BU49" s="60"/>
+      <c r="BV49" s="60"/>
+      <c r="BW49" s="60"/>
+      <c r="BX49" s="60"/>
+      <c r="BY49" s="60"/>
+      <c r="BZ49" s="64"/>
+      <c r="CA49" s="37"/>
+    </row>
+    <row r="50" spans="1:79" s="76" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="30">
         <v>7</v>
       </c>
-      <c r="C49" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
-      <c r="AK49" s="36"/>
-      <c r="AL49" s="36"/>
-      <c r="AM49" s="36"/>
-      <c r="AN49" s="36"/>
-      <c r="AO49" s="36"/>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="36"/>
-      <c r="AR49" s="36"/>
-      <c r="AS49" s="36"/>
-      <c r="AT49" s="36"/>
-      <c r="AU49" s="36"/>
-      <c r="AV49" s="36"/>
-      <c r="AW49" s="36"/>
-      <c r="AX49" s="36"/>
-      <c r="AY49" s="36"/>
-      <c r="AZ49" s="36"/>
-      <c r="BA49" s="36"/>
-      <c r="BB49" s="36"/>
-      <c r="BC49" s="36"/>
-      <c r="BD49" s="36"/>
-      <c r="BE49" s="36"/>
-      <c r="BF49" s="36"/>
-      <c r="BG49" s="36"/>
-      <c r="BH49" s="36"/>
-      <c r="BI49" s="36"/>
-      <c r="BJ49" s="36"/>
-      <c r="BK49" s="36"/>
-      <c r="BL49" s="36"/>
-      <c r="BM49" s="36"/>
-      <c r="BN49" s="36"/>
-      <c r="BO49" s="36"/>
-      <c r="BP49" s="36"/>
-      <c r="BQ49" s="36"/>
-      <c r="BR49" s="36"/>
-      <c r="BS49" s="36"/>
-      <c r="BT49" s="36"/>
-      <c r="BU49" s="36"/>
-      <c r="BV49" s="36"/>
-      <c r="BW49" s="36"/>
-      <c r="BX49" s="36"/>
-      <c r="BY49" s="36"/>
-      <c r="BZ49" s="36"/>
-      <c r="CA49" s="22"/>
+      <c r="C50" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="36"/>
+      <c r="V50" s="36"/>
+      <c r="W50" s="36"/>
+      <c r="X50" s="36"/>
+      <c r="Y50" s="36"/>
+      <c r="Z50" s="36"/>
+      <c r="AA50" s="36"/>
+      <c r="AB50" s="36"/>
+      <c r="AC50" s="36"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="36"/>
+      <c r="AH50" s="36"/>
+      <c r="AI50" s="36"/>
+      <c r="AJ50" s="36"/>
+      <c r="AK50" s="36"/>
+      <c r="AL50" s="36"/>
+      <c r="AM50" s="36"/>
+      <c r="AN50" s="36"/>
+      <c r="AO50" s="36"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="36"/>
+      <c r="AR50" s="36"/>
+      <c r="AS50" s="36"/>
+      <c r="AT50" s="36"/>
+      <c r="AU50" s="36"/>
+      <c r="AV50" s="36"/>
+      <c r="AW50" s="36"/>
+      <c r="AX50" s="36"/>
+      <c r="AY50" s="36"/>
+      <c r="AZ50" s="36"/>
+      <c r="BA50" s="36"/>
+      <c r="BB50" s="36"/>
+      <c r="BC50" s="36"/>
+      <c r="BD50" s="36"/>
+      <c r="BE50" s="36"/>
+      <c r="BF50" s="36"/>
+      <c r="BG50" s="36"/>
+      <c r="BH50" s="36"/>
+      <c r="BI50" s="36"/>
+      <c r="BJ50" s="36"/>
+      <c r="BK50" s="36"/>
+      <c r="BL50" s="36"/>
+      <c r="BM50" s="36"/>
+      <c r="BN50" s="36"/>
+      <c r="BO50" s="36"/>
+      <c r="BP50" s="36"/>
+      <c r="BQ50" s="36"/>
+      <c r="BR50" s="36"/>
+      <c r="BS50" s="36"/>
+      <c r="BT50" s="36"/>
+      <c r="BU50" s="36"/>
+      <c r="BV50" s="36"/>
+      <c r="BW50" s="36"/>
+      <c r="BX50" s="36"/>
+      <c r="BY50" s="36"/>
+      <c r="BZ50" s="36"/>
+      <c r="CA50" s="22"/>
     </row>
-    <row r="50" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="67" t="s">
+    <row r="51" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A51" s="37"/>
+      <c r="B51" s="38">
+        <v>7.1</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="40">
-        <v>44998</v>
-      </c>
-      <c r="F50" s="40">
-        <v>44999</v>
-      </c>
-      <c r="G50" s="41">
-        <v>16</v>
-      </c>
-      <c r="H50" s="59">
-        <v>0.8</v>
-      </c>
-      <c r="I50" s="51"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="73"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="82"/>
-      <c r="AD50" s="82"/>
-      <c r="AE50" s="82"/>
-      <c r="AF50" s="82"/>
-      <c r="AG50" s="54"/>
-      <c r="AH50" s="54"/>
-      <c r="AI50" s="60"/>
-      <c r="AJ50" s="60"/>
-      <c r="AK50" s="60"/>
-      <c r="AL50" s="60"/>
-      <c r="AM50" s="62"/>
-      <c r="AN50" s="62"/>
-      <c r="AO50" s="62"/>
-      <c r="AP50" s="62"/>
-      <c r="AQ50" s="62"/>
-      <c r="AR50" s="62"/>
-      <c r="AS50" s="62"/>
-      <c r="AT50" s="62"/>
-      <c r="AU50" s="62"/>
-      <c r="AV50" s="62"/>
-      <c r="AW50" s="60"/>
-      <c r="AX50" s="60"/>
-      <c r="AY50" s="60"/>
-      <c r="AZ50" s="60"/>
-      <c r="BA50" s="60"/>
-      <c r="BB50" s="60"/>
-      <c r="BC50" s="60"/>
-      <c r="BD50" s="60"/>
-      <c r="BE50" s="60"/>
-      <c r="BF50" s="60"/>
-      <c r="BG50" s="63"/>
-      <c r="BH50" s="63"/>
-      <c r="BI50" s="63"/>
-      <c r="BJ50" s="63"/>
-      <c r="BK50" s="63"/>
-      <c r="BL50" s="63"/>
-      <c r="BM50" s="63"/>
-      <c r="BN50" s="63"/>
-      <c r="BO50" s="63"/>
-      <c r="BP50" s="63"/>
-      <c r="BQ50" s="60"/>
-      <c r="BR50" s="60"/>
-      <c r="BS50" s="60"/>
-      <c r="BT50" s="60"/>
-      <c r="BU50" s="60"/>
-      <c r="BV50" s="60"/>
-      <c r="BW50" s="60"/>
-      <c r="BX50" s="60"/>
-      <c r="BY50" s="60"/>
-      <c r="BZ50" s="64"/>
-      <c r="CA50" s="37"/>
-    </row>
-    <row r="51" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>96</v>
-      </c>
       <c r="E51" s="40">
-        <v>44999</v>
+        <v>44994</v>
       </c>
       <c r="F51" s="40">
-        <v>45001</v>
+        <v>45000</v>
       </c>
       <c r="G51" s="41">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H51" s="59">
         <v>1</v>
       </c>
       <c r="I51" s="51"/>
       <c r="J51" s="52"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
       <c r="M51" s="54"/>
       <c r="N51" s="54"/>
       <c r="O51" s="52"/>
@@ -7677,21 +7609,21 @@
       <c r="AC51" s="54"/>
       <c r="AD51" s="54"/>
       <c r="AE51" s="54"/>
-      <c r="AF51" s="82"/>
-      <c r="AG51" s="82"/>
-      <c r="AH51" s="82"/>
-      <c r="AI51" s="82"/>
-      <c r="AJ51" s="54"/>
-      <c r="AK51" s="54"/>
-      <c r="AL51" s="54"/>
-      <c r="AM51" s="62"/>
-      <c r="AN51" s="62"/>
-      <c r="AO51" s="62"/>
-      <c r="AP51" s="62"/>
-      <c r="AQ51" s="62"/>
-      <c r="AR51" s="62"/>
-      <c r="AS51" s="62"/>
-      <c r="AT51" s="62"/>
+      <c r="AF51" s="54"/>
+      <c r="AG51" s="54"/>
+      <c r="AH51" s="60"/>
+      <c r="AI51" s="60"/>
+      <c r="AJ51" s="60"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="77"/>
+      <c r="AN51" s="77"/>
+      <c r="AO51" s="77"/>
+      <c r="AP51" s="77"/>
+      <c r="AQ51" s="77"/>
+      <c r="AR51" s="77"/>
+      <c r="AS51" s="77"/>
+      <c r="AT51" s="77"/>
       <c r="AU51" s="62"/>
       <c r="AV51" s="62"/>
       <c r="AW51" s="60"/>
@@ -7726,26 +7658,28 @@
       <c r="BZ51" s="64"/>
       <c r="CA51" s="37"/>
     </row>
-    <row r="52" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
+      <c r="B52" s="38">
+        <v>7.2</v>
+      </c>
       <c r="C52" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="67" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E52" s="40">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="F52" s="40">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="G52" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H52" s="59">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I52" s="51"/>
       <c r="J52" s="52"/>
@@ -7770,9 +7704,9 @@
       <c r="AC52" s="54"/>
       <c r="AD52" s="54"/>
       <c r="AE52" s="54"/>
-      <c r="AF52" s="82"/>
-      <c r="AG52" s="82"/>
-      <c r="AH52" s="82"/>
+      <c r="AF52" s="54"/>
+      <c r="AG52" s="54"/>
+      <c r="AH52" s="60"/>
       <c r="AI52" s="60"/>
       <c r="AJ52" s="60"/>
       <c r="AK52" s="60"/>
@@ -7783,14 +7717,14 @@
       <c r="AP52" s="62"/>
       <c r="AQ52" s="62"/>
       <c r="AR52" s="62"/>
-      <c r="AS52" s="62"/>
-      <c r="AT52" s="62"/>
-      <c r="AU52" s="62"/>
-      <c r="AV52" s="62"/>
-      <c r="AW52" s="60"/>
-      <c r="AX52" s="60"/>
-      <c r="AY52" s="60"/>
-      <c r="AZ52" s="60"/>
+      <c r="AS52" s="77"/>
+      <c r="AT52" s="77"/>
+      <c r="AU52" s="77"/>
+      <c r="AV52" s="77"/>
+      <c r="AW52" s="77"/>
+      <c r="AX52" s="77"/>
+      <c r="AY52" s="77"/>
+      <c r="AZ52" s="77"/>
       <c r="BA52" s="60"/>
       <c r="BB52" s="60"/>
       <c r="BC52" s="60"/>
@@ -7819,26 +7753,28 @@
       <c r="BZ52" s="64"/>
       <c r="CA52" s="37"/>
     </row>
-    <row r="53" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
+      <c r="B53" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="C53" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E53" s="40">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="F53" s="40">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="G53" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H53" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="51"/>
       <c r="J53" s="52"/>
@@ -7865,9 +7801,9 @@
       <c r="AE53" s="54"/>
       <c r="AF53" s="54"/>
       <c r="AG53" s="54"/>
-      <c r="AH53" s="82"/>
-      <c r="AI53" s="82"/>
-      <c r="AJ53" s="82"/>
+      <c r="AH53" s="60"/>
+      <c r="AI53" s="60"/>
+      <c r="AJ53" s="60"/>
       <c r="AK53" s="60"/>
       <c r="AL53" s="60"/>
       <c r="AM53" s="62"/>
@@ -7882,14 +7818,14 @@
       <c r="AV53" s="62"/>
       <c r="AW53" s="60"/>
       <c r="AX53" s="60"/>
-      <c r="AY53" s="60"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="60"/>
-      <c r="BB53" s="60"/>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="60"/>
-      <c r="BE53" s="60"/>
-      <c r="BF53" s="60"/>
+      <c r="AY53" s="77"/>
+      <c r="AZ53" s="77"/>
+      <c r="BA53" s="77"/>
+      <c r="BB53" s="77"/>
+      <c r="BC53" s="77"/>
+      <c r="BD53" s="77"/>
+      <c r="BE53" s="77"/>
+      <c r="BF53" s="77"/>
       <c r="BG53" s="63"/>
       <c r="BH53" s="63"/>
       <c r="BI53" s="63"/>
@@ -7912,26 +7848,28 @@
       <c r="BZ53" s="64"/>
       <c r="CA53" s="37"/>
     </row>
-    <row r="54" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="38">
+        <v>7.4</v>
+      </c>
       <c r="C54" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="67" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E54" s="40">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="F54" s="40">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="G54" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H54" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I54" s="51"/>
       <c r="J54" s="52"/>
@@ -7959,10 +7897,10 @@
       <c r="AF54" s="54"/>
       <c r="AG54" s="54"/>
       <c r="AH54" s="60"/>
-      <c r="AI54" s="54"/>
-      <c r="AJ54" s="82"/>
-      <c r="AK54" s="82"/>
-      <c r="AL54" s="82"/>
+      <c r="AI54" s="60"/>
+      <c r="AJ54" s="60"/>
+      <c r="AK54" s="60"/>
+      <c r="AL54" s="60"/>
       <c r="AM54" s="62"/>
       <c r="AN54" s="62"/>
       <c r="AO54" s="62"/>
@@ -7979,14 +7917,14 @@
       <c r="AZ54" s="60"/>
       <c r="BA54" s="60"/>
       <c r="BB54" s="60"/>
-      <c r="BC54" s="60"/>
-      <c r="BD54" s="60"/>
-      <c r="BE54" s="60"/>
-      <c r="BF54" s="60"/>
-      <c r="BG54" s="63"/>
-      <c r="BH54" s="63"/>
-      <c r="BI54" s="63"/>
-      <c r="BJ54" s="63"/>
+      <c r="BC54" s="77"/>
+      <c r="BD54" s="77"/>
+      <c r="BE54" s="77"/>
+      <c r="BF54" s="77"/>
+      <c r="BG54" s="77"/>
+      <c r="BH54" s="77"/>
+      <c r="BI54" s="77"/>
+      <c r="BJ54" s="77"/>
       <c r="BK54" s="63"/>
       <c r="BL54" s="63"/>
       <c r="BM54" s="63"/>
@@ -8005,118 +7943,128 @@
       <c r="BZ54" s="64"/>
       <c r="CA54" s="37"/>
     </row>
-    <row r="55" spans="1:79" s="78" customFormat="1" ht="21" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="30">
-        <v>8</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
-      <c r="AK55" s="36"/>
-      <c r="AL55" s="36"/>
-      <c r="AM55" s="36"/>
-      <c r="AN55" s="36"/>
-      <c r="AO55" s="36"/>
-      <c r="AP55" s="36"/>
-      <c r="AQ55" s="36"/>
-      <c r="AR55" s="36"/>
-      <c r="AS55" s="36"/>
-      <c r="AT55" s="36"/>
-      <c r="AU55" s="36"/>
-      <c r="AV55" s="36"/>
-      <c r="AW55" s="36"/>
-      <c r="AX55" s="36"/>
-      <c r="AY55" s="36"/>
-      <c r="AZ55" s="36"/>
-      <c r="BA55" s="36"/>
-      <c r="BB55" s="36"/>
-      <c r="BC55" s="36"/>
-      <c r="BD55" s="36"/>
-      <c r="BE55" s="36"/>
-      <c r="BF55" s="36"/>
-      <c r="BG55" s="36"/>
-      <c r="BH55" s="36"/>
-      <c r="BI55" s="36"/>
-      <c r="BJ55" s="36"/>
-      <c r="BK55" s="36"/>
-      <c r="BL55" s="36"/>
-      <c r="BM55" s="36"/>
-      <c r="BN55" s="36"/>
-      <c r="BO55" s="36"/>
-      <c r="BP55" s="36"/>
-      <c r="BQ55" s="36"/>
-      <c r="BR55" s="36"/>
-      <c r="BS55" s="36"/>
-      <c r="BT55" s="36"/>
-      <c r="BU55" s="36"/>
-      <c r="BV55" s="36"/>
-      <c r="BW55" s="36"/>
-      <c r="BX55" s="36"/>
-      <c r="BY55" s="36"/>
-      <c r="BZ55" s="36"/>
-      <c r="CA55" s="22"/>
+    <row r="55" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="40">
+        <v>45006</v>
+      </c>
+      <c r="F55" s="40">
+        <v>45008</v>
+      </c>
+      <c r="G55" s="41">
+        <v>16</v>
+      </c>
+      <c r="H55" s="59">
+        <v>1</v>
+      </c>
+      <c r="I55" s="51"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="55"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="60"/>
+      <c r="AI55" s="60"/>
+      <c r="AJ55" s="60"/>
+      <c r="AK55" s="60"/>
+      <c r="AL55" s="60"/>
+      <c r="AM55" s="62"/>
+      <c r="AN55" s="62"/>
+      <c r="AO55" s="62"/>
+      <c r="AP55" s="62"/>
+      <c r="AQ55" s="62"/>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="62"/>
+      <c r="AU55" s="62"/>
+      <c r="AV55" s="62"/>
+      <c r="AW55" s="60"/>
+      <c r="AX55" s="60"/>
+      <c r="AY55" s="60"/>
+      <c r="AZ55" s="60"/>
+      <c r="BA55" s="60"/>
+      <c r="BB55" s="60"/>
+      <c r="BC55" s="60"/>
+      <c r="BD55" s="60"/>
+      <c r="BE55" s="60"/>
+      <c r="BF55" s="60"/>
+      <c r="BG55" s="77"/>
+      <c r="BH55" s="77"/>
+      <c r="BI55" s="77"/>
+      <c r="BJ55" s="77"/>
+      <c r="BK55" s="77"/>
+      <c r="BL55" s="77"/>
+      <c r="BM55" s="77"/>
+      <c r="BN55" s="77"/>
+      <c r="BO55" s="63"/>
+      <c r="BP55" s="63"/>
+      <c r="BQ55" s="60"/>
+      <c r="BR55" s="60"/>
+      <c r="BS55" s="60"/>
+      <c r="BT55" s="60"/>
+      <c r="BU55" s="60"/>
+      <c r="BV55" s="60"/>
+      <c r="BW55" s="60"/>
+      <c r="BX55" s="60"/>
+      <c r="BY55" s="60"/>
+      <c r="BZ55" s="64"/>
+      <c r="CA55" s="37"/>
     </row>
-    <row r="56" spans="1:79" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="56" spans="1:79" s="76" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A56" s="37"/>
       <c r="B56" s="38">
-        <v>4.4000000000000004</v>
+        <v>7.6</v>
       </c>
       <c r="C56" s="67" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="67" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E56" s="40">
-        <v>44994</v>
+        <v>45008</v>
       </c>
       <c r="F56" s="40">
-        <v>45000</v>
+        <v>45009</v>
       </c>
       <c r="G56" s="41">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H56" s="59">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I56" s="51"/>
       <c r="J56" s="52"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
       <c r="M56" s="54"/>
       <c r="N56" s="54"/>
       <c r="O56" s="52"/>
@@ -8129,16 +8077,16 @@
       <c r="V56" s="55"/>
       <c r="W56" s="55"/>
       <c r="X56" s="46"/>
-      <c r="Y56" s="80"/>
-      <c r="Z56" s="80"/>
-      <c r="AA56" s="80"/>
-      <c r="AB56" s="80"/>
-      <c r="AC56" s="80"/>
-      <c r="AD56" s="80"/>
-      <c r="AE56" s="80"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="80"/>
-      <c r="AH56" s="80"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="60"/>
       <c r="AI56" s="60"/>
       <c r="AJ56" s="60"/>
       <c r="AK56" s="60"/>
@@ -8169,14 +8117,14 @@
       <c r="BJ56" s="63"/>
       <c r="BK56" s="63"/>
       <c r="BL56" s="63"/>
-      <c r="BM56" s="63"/>
-      <c r="BN56" s="63"/>
-      <c r="BO56" s="63"/>
-      <c r="BP56" s="63"/>
-      <c r="BQ56" s="60"/>
-      <c r="BR56" s="60"/>
-      <c r="BS56" s="60"/>
-      <c r="BT56" s="60"/>
+      <c r="BM56" s="77"/>
+      <c r="BN56" s="77"/>
+      <c r="BO56" s="77"/>
+      <c r="BP56" s="77"/>
+      <c r="BQ56" s="77"/>
+      <c r="BR56" s="77"/>
+      <c r="BS56" s="77"/>
+      <c r="BT56" s="77"/>
       <c r="BU56" s="60"/>
       <c r="BV56" s="60"/>
       <c r="BW56" s="60"/>
@@ -8185,119 +8133,113 @@
       <c r="BZ56" s="64"/>
       <c r="CA56" s="37"/>
     </row>
-    <row r="57" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="40">
-        <v>45000</v>
-      </c>
-      <c r="F57" s="40">
-        <v>45001</v>
-      </c>
-      <c r="G57" s="41">
-        <v>16</v>
-      </c>
-      <c r="H57" s="59">
-        <v>0</v>
-      </c>
-      <c r="I57" s="51"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="46"/>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="46"/>
-      <c r="AB57" s="46"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="80"/>
-      <c r="AH57" s="80"/>
-      <c r="AI57" s="80"/>
-      <c r="AJ57" s="80"/>
-      <c r="AK57" s="60"/>
-      <c r="AL57" s="60"/>
-      <c r="AM57" s="62"/>
-      <c r="AN57" s="62"/>
-      <c r="AO57" s="62"/>
-      <c r="AP57" s="62"/>
-      <c r="AQ57" s="62"/>
-      <c r="AR57" s="62"/>
-      <c r="AS57" s="62"/>
-      <c r="AT57" s="62"/>
-      <c r="AU57" s="62"/>
-      <c r="AV57" s="62"/>
-      <c r="AW57" s="60"/>
-      <c r="AX57" s="60"/>
-      <c r="AY57" s="60"/>
-      <c r="AZ57" s="60"/>
-      <c r="BA57" s="60"/>
-      <c r="BB57" s="60"/>
-      <c r="BC57" s="60"/>
-      <c r="BD57" s="60"/>
-      <c r="BE57" s="60"/>
-      <c r="BF57" s="60"/>
-      <c r="BG57" s="63"/>
-      <c r="BH57" s="63"/>
-      <c r="BI57" s="63"/>
-      <c r="BJ57" s="63"/>
-      <c r="BK57" s="63"/>
-      <c r="BL57" s="63"/>
-      <c r="BM57" s="63"/>
-      <c r="BN57" s="63"/>
-      <c r="BO57" s="63"/>
-      <c r="BP57" s="63"/>
-      <c r="BQ57" s="60"/>
-      <c r="BR57" s="60"/>
-      <c r="BS57" s="60"/>
-      <c r="BT57" s="60"/>
-      <c r="BU57" s="60"/>
-      <c r="BV57" s="60"/>
-      <c r="BW57" s="60"/>
-      <c r="BX57" s="60"/>
-      <c r="BY57" s="60"/>
-      <c r="BZ57" s="64"/>
-      <c r="CA57" s="37"/>
+    <row r="57" spans="1:79" s="76" customFormat="1" ht="21" customHeight="1">
+      <c r="A57" s="22"/>
+      <c r="B57" s="30">
+        <v>8</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
+      <c r="AC57" s="36"/>
+      <c r="AD57" s="36"/>
+      <c r="AE57" s="36"/>
+      <c r="AF57" s="36"/>
+      <c r="AG57" s="36"/>
+      <c r="AH57" s="36"/>
+      <c r="AI57" s="36"/>
+      <c r="AJ57" s="36"/>
+      <c r="AK57" s="36"/>
+      <c r="AL57" s="36"/>
+      <c r="AM57" s="36"/>
+      <c r="AN57" s="36"/>
+      <c r="AO57" s="36"/>
+      <c r="AP57" s="36"/>
+      <c r="AQ57" s="36"/>
+      <c r="AR57" s="36"/>
+      <c r="AS57" s="36"/>
+      <c r="AT57" s="36"/>
+      <c r="AU57" s="36"/>
+      <c r="AV57" s="36"/>
+      <c r="AW57" s="36"/>
+      <c r="AX57" s="36"/>
+      <c r="AY57" s="36"/>
+      <c r="AZ57" s="36"/>
+      <c r="BA57" s="36"/>
+      <c r="BB57" s="36"/>
+      <c r="BC57" s="36"/>
+      <c r="BD57" s="36"/>
+      <c r="BE57" s="36"/>
+      <c r="BF57" s="36"/>
+      <c r="BG57" s="36"/>
+      <c r="BH57" s="36"/>
+      <c r="BI57" s="36"/>
+      <c r="BJ57" s="36"/>
+      <c r="BK57" s="36"/>
+      <c r="BL57" s="36"/>
+      <c r="BM57" s="36"/>
+      <c r="BN57" s="36"/>
+      <c r="BO57" s="36"/>
+      <c r="BP57" s="36"/>
+      <c r="BQ57" s="36"/>
+      <c r="BR57" s="36"/>
+      <c r="BS57" s="36"/>
+      <c r="BT57" s="36"/>
+      <c r="BU57" s="36"/>
+      <c r="BV57" s="36"/>
+      <c r="BW57" s="36"/>
+      <c r="BX57" s="36"/>
+      <c r="BY57" s="36"/>
+      <c r="BZ57" s="36"/>
+      <c r="CA57" s="22"/>
     </row>
-    <row r="58" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="58" spans="1:79" s="76" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
+      <c r="B58" s="38">
+        <v>8.1</v>
+      </c>
       <c r="C58" s="67" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D58" s="67" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E58" s="40">
-        <v>45001</v>
+        <v>44998</v>
       </c>
       <c r="F58" s="40">
-        <v>45005</v>
+        <v>44999</v>
       </c>
       <c r="G58" s="41">
         <v>16</v>
       </c>
       <c r="H58" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="51"/>
       <c r="J58" s="52"/>
@@ -8319,17 +8261,17 @@
       <c r="Z58" s="46"/>
       <c r="AA58" s="46"/>
       <c r="AB58" s="46"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="60"/>
-      <c r="AI58" s="60"/>
-      <c r="AJ58" s="80"/>
-      <c r="AK58" s="80"/>
-      <c r="AL58" s="80"/>
-      <c r="AM58" s="80"/>
+      <c r="AC58" s="79"/>
+      <c r="AD58" s="79"/>
+      <c r="AE58" s="79"/>
+      <c r="AF58" s="79"/>
+      <c r="AG58" s="79"/>
+      <c r="AH58" s="79"/>
+      <c r="AI58" s="79"/>
+      <c r="AJ58" s="79"/>
+      <c r="AK58" s="60"/>
+      <c r="AL58" s="60"/>
+      <c r="AM58" s="62"/>
       <c r="AN58" s="62"/>
       <c r="AO58" s="62"/>
       <c r="AP58" s="62"/>
@@ -8371,26 +8313,28 @@
       <c r="BZ58" s="64"/>
       <c r="CA58" s="37"/>
     </row>
-    <row r="59" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:79" s="76" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
+      <c r="B59" s="38">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="C59" s="67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D59" s="67" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E59" s="40">
-        <v>45005</v>
+        <v>45000</v>
       </c>
       <c r="F59" s="40">
-        <v>45006</v>
+        <v>45000</v>
       </c>
       <c r="G59" s="41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H59" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="51"/>
       <c r="J59" s="52"/>
@@ -8416,16 +8360,16 @@
       <c r="AD59" s="54"/>
       <c r="AE59" s="54"/>
       <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="60"/>
+      <c r="AG59" s="126"/>
+      <c r="AH59" s="126"/>
       <c r="AI59" s="60"/>
       <c r="AJ59" s="60"/>
       <c r="AK59" s="60"/>
       <c r="AL59" s="60"/>
-      <c r="AM59" s="80"/>
-      <c r="AN59" s="80"/>
-      <c r="AO59" s="80"/>
-      <c r="AP59" s="80"/>
+      <c r="AM59" s="62"/>
+      <c r="AN59" s="62"/>
+      <c r="AO59" s="62"/>
+      <c r="AP59" s="62"/>
       <c r="AQ59" s="62"/>
       <c r="AR59" s="62"/>
       <c r="AS59" s="62"/>
@@ -8438,52 +8382,54 @@
       <c r="AZ59" s="60"/>
       <c r="BA59" s="60"/>
       <c r="BB59" s="60"/>
-      <c r="BC59" s="60"/>
-      <c r="BD59" s="60"/>
-      <c r="BE59" s="60"/>
-      <c r="BF59" s="60"/>
-      <c r="BG59" s="63"/>
-      <c r="BH59" s="63"/>
-      <c r="BI59" s="63"/>
-      <c r="BJ59" s="63"/>
-      <c r="BK59" s="63"/>
-      <c r="BL59" s="63"/>
-      <c r="BM59" s="63"/>
-      <c r="BN59" s="63"/>
-      <c r="BO59" s="63"/>
-      <c r="BP59" s="63"/>
-      <c r="BQ59" s="60"/>
-      <c r="BR59" s="60"/>
-      <c r="BS59" s="60"/>
-      <c r="BT59" s="60"/>
-      <c r="BU59" s="60"/>
-      <c r="BV59" s="60"/>
-      <c r="BW59" s="60"/>
+      <c r="BC59" s="79"/>
+      <c r="BD59" s="79"/>
+      <c r="BE59" s="79"/>
+      <c r="BF59" s="79"/>
+      <c r="BG59" s="79"/>
+      <c r="BH59" s="79"/>
+      <c r="BI59" s="79"/>
+      <c r="BJ59" s="79"/>
+      <c r="BK59" s="79"/>
+      <c r="BL59" s="79"/>
+      <c r="BM59" s="79"/>
+      <c r="BN59" s="79"/>
+      <c r="BO59" s="79"/>
+      <c r="BP59" s="79"/>
+      <c r="BQ59" s="79"/>
+      <c r="BR59" s="79"/>
+      <c r="BS59" s="79"/>
+      <c r="BT59" s="79"/>
+      <c r="BU59" s="79"/>
+      <c r="BV59" s="79"/>
+      <c r="BW59" s="79"/>
       <c r="BX59" s="60"/>
       <c r="BY59" s="60"/>
       <c r="BZ59" s="64"/>
       <c r="CA59" s="37"/>
     </row>
-    <row r="60" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:79" s="76" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
+      <c r="B60" s="38">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="C60" s="67" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D60" s="67" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E60" s="40">
-        <v>45006</v>
+        <v>45001</v>
       </c>
       <c r="F60" s="40">
-        <v>45008</v>
+        <v>45002</v>
       </c>
       <c r="G60" s="41">
         <v>16</v>
       </c>
       <c r="H60" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="51"/>
       <c r="J60" s="52"/>
@@ -8511,17 +8457,17 @@
       <c r="AF60" s="54"/>
       <c r="AG60" s="54"/>
       <c r="AH60" s="60"/>
-      <c r="AI60" s="60"/>
-      <c r="AJ60" s="60"/>
-      <c r="AK60" s="60"/>
-      <c r="AL60" s="60"/>
-      <c r="AM60" s="62"/>
-      <c r="AN60" s="62"/>
-      <c r="AO60" s="62"/>
-      <c r="AP60" s="80"/>
-      <c r="AQ60" s="80"/>
-      <c r="AR60" s="80"/>
-      <c r="AS60" s="80"/>
+      <c r="AI60" s="79"/>
+      <c r="AJ60" s="79"/>
+      <c r="AK60" s="79"/>
+      <c r="AL60" s="79"/>
+      <c r="AM60" s="79"/>
+      <c r="AN60" s="79"/>
+      <c r="AO60" s="79"/>
+      <c r="AP60" s="79"/>
+      <c r="AQ60" s="79"/>
+      <c r="AR60" s="62"/>
+      <c r="AS60" s="62"/>
       <c r="AT60" s="62"/>
       <c r="AU60" s="62"/>
       <c r="AV60" s="62"/>
@@ -8557,26 +8503,28 @@
       <c r="BZ60" s="64"/>
       <c r="CA60" s="37"/>
     </row>
-    <row r="61" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:79" s="76" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
       <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
+      <c r="B61" s="38">
+        <v>8.4</v>
+      </c>
       <c r="C61" s="67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D61" s="67" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E61" s="40">
-        <v>45008</v>
+        <v>45005</v>
       </c>
       <c r="F61" s="40">
-        <v>45009</v>
+        <v>45005</v>
       </c>
       <c r="G61" s="41">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H61" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="51"/>
       <c r="J61" s="52"/>
@@ -8607,29 +8555,29 @@
       <c r="AI61" s="60"/>
       <c r="AJ61" s="60"/>
       <c r="AK61" s="60"/>
-      <c r="AL61" s="60"/>
+      <c r="AL61" s="127"/>
       <c r="AM61" s="62"/>
       <c r="AN61" s="62"/>
       <c r="AO61" s="62"/>
       <c r="AP61" s="62"/>
       <c r="AQ61" s="62"/>
       <c r="AR61" s="62"/>
-      <c r="AS61" s="80"/>
-      <c r="AT61" s="80"/>
-      <c r="AU61" s="80"/>
-      <c r="AV61" s="80"/>
-      <c r="AW61" s="60"/>
-      <c r="AX61" s="60"/>
-      <c r="AY61" s="60"/>
-      <c r="AZ61" s="60"/>
-      <c r="BA61" s="60"/>
-      <c r="BB61" s="60"/>
-      <c r="BC61" s="60"/>
-      <c r="BD61" s="60"/>
-      <c r="BE61" s="60"/>
-      <c r="BF61" s="60"/>
-      <c r="BG61" s="63"/>
-      <c r="BH61" s="63"/>
+      <c r="AS61" s="62"/>
+      <c r="AT61" s="62"/>
+      <c r="AU61" s="62"/>
+      <c r="AV61" s="62"/>
+      <c r="AW61" s="79"/>
+      <c r="AX61" s="79"/>
+      <c r="AY61" s="79"/>
+      <c r="AZ61" s="79"/>
+      <c r="BA61" s="79"/>
+      <c r="BB61" s="79"/>
+      <c r="BC61" s="79"/>
+      <c r="BD61" s="79"/>
+      <c r="BE61" s="79"/>
+      <c r="BF61" s="79"/>
+      <c r="BG61" s="79"/>
+      <c r="BH61" s="79"/>
       <c r="BI61" s="63"/>
       <c r="BJ61" s="63"/>
       <c r="BK61" s="63"/>
@@ -8650,204 +8598,208 @@
       <c r="BZ61" s="64"/>
       <c r="CA61" s="37"/>
     </row>
-    <row r="62" spans="1:79" s="78" customFormat="1" ht="21" customHeight="1">
-      <c r="A62" s="22"/>
-      <c r="B62" s="30">
+    <row r="62" spans="1:79" s="76" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
+      <c r="A62" s="37"/>
+      <c r="B62" s="38">
+        <v>8.5</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="40">
+        <v>45006</v>
+      </c>
+      <c r="F62" s="40">
+        <v>45006</v>
+      </c>
+      <c r="G62" s="41">
+        <v>8</v>
+      </c>
+      <c r="H62" s="59">
+        <v>1</v>
+      </c>
+      <c r="I62" s="51"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="46"/>
+      <c r="Y62" s="46"/>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="46"/>
+      <c r="AB62" s="46"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="54"/>
+      <c r="AE62" s="54"/>
+      <c r="AF62" s="54"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="60"/>
+      <c r="AI62" s="60"/>
+      <c r="AJ62" s="60"/>
+      <c r="AK62" s="60"/>
+      <c r="AL62" s="60"/>
+      <c r="AM62" s="62"/>
+      <c r="AN62" s="62"/>
+      <c r="AO62" s="79"/>
+      <c r="AP62" s="79"/>
+      <c r="AQ62" s="79"/>
+      <c r="AR62" s="79"/>
+      <c r="AS62" s="79"/>
+      <c r="AT62" s="79"/>
+      <c r="AU62" s="79"/>
+      <c r="AV62" s="79"/>
+      <c r="AW62" s="79"/>
+      <c r="AX62" s="79"/>
+      <c r="AY62" s="60"/>
+      <c r="AZ62" s="60"/>
+      <c r="BA62" s="60"/>
+      <c r="BB62" s="60"/>
+      <c r="BC62" s="60"/>
+      <c r="BD62" s="60"/>
+      <c r="BE62" s="60"/>
+      <c r="BF62" s="60"/>
+      <c r="BG62" s="63"/>
+      <c r="BH62" s="63"/>
+      <c r="BI62" s="63"/>
+      <c r="BJ62" s="63"/>
+      <c r="BK62" s="63"/>
+      <c r="BL62" s="63"/>
+      <c r="BM62" s="63"/>
+      <c r="BN62" s="63"/>
+      <c r="BO62" s="63"/>
+      <c r="BP62" s="63"/>
+      <c r="BQ62" s="60"/>
+      <c r="BR62" s="60"/>
+      <c r="BS62" s="60"/>
+      <c r="BT62" s="60"/>
+      <c r="BU62" s="60"/>
+      <c r="BV62" s="60"/>
+      <c r="BW62" s="60"/>
+      <c r="BX62" s="60"/>
+      <c r="BY62" s="60"/>
+      <c r="BZ62" s="64"/>
+      <c r="CA62" s="37"/>
+    </row>
+    <row r="63" spans="1:79" s="76" customFormat="1" ht="21" customHeight="1">
+      <c r="A63" s="22"/>
+      <c r="B63" s="30">
         <v>9</v>
       </c>
-      <c r="C62" s="76" t="s">
+      <c r="C63" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="36"/>
+      <c r="X63" s="36"/>
+      <c r="Y63" s="36"/>
+      <c r="Z63" s="36"/>
+      <c r="AA63" s="36"/>
+      <c r="AB63" s="36"/>
+      <c r="AC63" s="36"/>
+      <c r="AD63" s="36"/>
+      <c r="AE63" s="36"/>
+      <c r="AF63" s="36"/>
+      <c r="AG63" s="36"/>
+      <c r="AH63" s="36"/>
+      <c r="AI63" s="36"/>
+      <c r="AJ63" s="36"/>
+      <c r="AK63" s="36"/>
+      <c r="AL63" s="36"/>
+      <c r="AM63" s="36"/>
+      <c r="AN63" s="36"/>
+      <c r="AO63" s="36"/>
+      <c r="AP63" s="36"/>
+      <c r="AQ63" s="36"/>
+      <c r="AR63" s="36"/>
+      <c r="AS63" s="36"/>
+      <c r="AT63" s="36"/>
+      <c r="AU63" s="36"/>
+      <c r="AV63" s="36"/>
+      <c r="AW63" s="36"/>
+      <c r="AX63" s="36"/>
+      <c r="AY63" s="36"/>
+      <c r="AZ63" s="36"/>
+      <c r="BA63" s="36"/>
+      <c r="BB63" s="36"/>
+      <c r="BC63" s="36"/>
+      <c r="BD63" s="36"/>
+      <c r="BE63" s="36"/>
+      <c r="BF63" s="36"/>
+      <c r="BG63" s="36"/>
+      <c r="BH63" s="36"/>
+      <c r="BI63" s="36"/>
+      <c r="BJ63" s="36"/>
+      <c r="BK63" s="36"/>
+      <c r="BL63" s="36"/>
+      <c r="BM63" s="36"/>
+      <c r="BN63" s="36"/>
+      <c r="BO63" s="36"/>
+      <c r="BP63" s="36"/>
+      <c r="BQ63" s="36"/>
+      <c r="BR63" s="36"/>
+      <c r="BS63" s="36"/>
+      <c r="BT63" s="36"/>
+      <c r="BU63" s="36"/>
+      <c r="BV63" s="36"/>
+      <c r="BW63" s="36"/>
+      <c r="BX63" s="36"/>
+      <c r="BY63" s="36"/>
+      <c r="BZ63" s="36"/>
+      <c r="CA63" s="22"/>
+    </row>
+    <row r="64" spans="1:79" s="76" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
+      <c r="A64" s="37"/>
+      <c r="B64" s="38">
+        <v>9.1</v>
+      </c>
+      <c r="C64" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
-      <c r="AC62" s="36"/>
-      <c r="AD62" s="36"/>
-      <c r="AE62" s="36"/>
-      <c r="AF62" s="36"/>
-      <c r="AG62" s="36"/>
-      <c r="AH62" s="36"/>
-      <c r="AI62" s="36"/>
-      <c r="AJ62" s="36"/>
-      <c r="AK62" s="36"/>
-      <c r="AL62" s="36"/>
-      <c r="AM62" s="36"/>
-      <c r="AN62" s="36"/>
-      <c r="AO62" s="36"/>
-      <c r="AP62" s="36"/>
-      <c r="AQ62" s="36"/>
-      <c r="AR62" s="36"/>
-      <c r="AS62" s="36"/>
-      <c r="AT62" s="36"/>
-      <c r="AU62" s="36"/>
-      <c r="AV62" s="36"/>
-      <c r="AW62" s="36"/>
-      <c r="AX62" s="36"/>
-      <c r="AY62" s="36"/>
-      <c r="AZ62" s="36"/>
-      <c r="BA62" s="36"/>
-      <c r="BB62" s="36"/>
-      <c r="BC62" s="36"/>
-      <c r="BD62" s="36"/>
-      <c r="BE62" s="36"/>
-      <c r="BF62" s="36"/>
-      <c r="BG62" s="36"/>
-      <c r="BH62" s="36"/>
-      <c r="BI62" s="36"/>
-      <c r="BJ62" s="36"/>
-      <c r="BK62" s="36"/>
-      <c r="BL62" s="36"/>
-      <c r="BM62" s="36"/>
-      <c r="BN62" s="36"/>
-      <c r="BO62" s="36"/>
-      <c r="BP62" s="36"/>
-      <c r="BQ62" s="36"/>
-      <c r="BR62" s="36"/>
-      <c r="BS62" s="36"/>
-      <c r="BT62" s="36"/>
-      <c r="BU62" s="36"/>
-      <c r="BV62" s="36"/>
-      <c r="BW62" s="36"/>
-      <c r="BX62" s="36"/>
-      <c r="BY62" s="36"/>
-      <c r="BZ62" s="36"/>
-      <c r="CA62" s="22"/>
-    </row>
-    <row r="63" spans="1:79" s="78" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="40">
-        <v>44998</v>
-      </c>
-      <c r="F63" s="40">
-        <v>44999</v>
-      </c>
-      <c r="G63" s="41">
+      <c r="D64" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="40">
+        <v>45012</v>
+      </c>
+      <c r="F64" s="40">
+        <v>45013</v>
+      </c>
+      <c r="G64" s="41">
         <v>16</v>
       </c>
-      <c r="H63" s="59">
-        <v>0.7</v>
-      </c>
-      <c r="I63" s="51"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="46"/>
-      <c r="Y63" s="46"/>
-      <c r="Z63" s="46"/>
-      <c r="AA63" s="46"/>
-      <c r="AB63" s="46"/>
-      <c r="AC63" s="83"/>
-      <c r="AD63" s="83"/>
-      <c r="AE63" s="83"/>
-      <c r="AF63" s="83"/>
-      <c r="AG63" s="54"/>
-      <c r="AH63" s="60"/>
-      <c r="AI63" s="60"/>
-      <c r="AJ63" s="60"/>
-      <c r="AK63" s="60"/>
-      <c r="AL63" s="60"/>
-      <c r="AM63" s="62"/>
-      <c r="AN63" s="62"/>
-      <c r="AO63" s="62"/>
-      <c r="AP63" s="62"/>
-      <c r="AQ63" s="62"/>
-      <c r="AR63" s="62"/>
-      <c r="AS63" s="62"/>
-      <c r="AT63" s="62"/>
-      <c r="AU63" s="62"/>
-      <c r="AV63" s="62"/>
-      <c r="AW63" s="60"/>
-      <c r="AX63" s="60"/>
-      <c r="AY63" s="60"/>
-      <c r="AZ63" s="60"/>
-      <c r="BA63" s="60"/>
-      <c r="BB63" s="60"/>
-      <c r="BC63" s="60"/>
-      <c r="BD63" s="60"/>
-      <c r="BE63" s="60"/>
-      <c r="BF63" s="60"/>
-      <c r="BG63" s="63"/>
-      <c r="BH63" s="63"/>
-      <c r="BI63" s="63"/>
-      <c r="BJ63" s="63"/>
-      <c r="BK63" s="63"/>
-      <c r="BL63" s="63"/>
-      <c r="BM63" s="63"/>
-      <c r="BN63" s="63"/>
-      <c r="BO63" s="63"/>
-      <c r="BP63" s="63"/>
-      <c r="BQ63" s="60"/>
-      <c r="BR63" s="60"/>
-      <c r="BS63" s="60"/>
-      <c r="BT63" s="60"/>
-      <c r="BU63" s="60"/>
-      <c r="BV63" s="60"/>
-      <c r="BW63" s="60"/>
-      <c r="BX63" s="60"/>
-      <c r="BY63" s="60"/>
-      <c r="BZ63" s="64"/>
-      <c r="CA63" s="37"/>
-    </row>
-    <row r="64" spans="1:79" s="78" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
-      <c r="A64" s="37"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="40">
-        <v>45000</v>
-      </c>
-      <c r="F64" s="40">
-        <v>45000</v>
-      </c>
-      <c r="G64" s="41">
-        <v>8</v>
-      </c>
       <c r="H64" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="51"/>
       <c r="J64" s="52"/>
@@ -8873,8 +8825,8 @@
       <c r="AD64" s="54"/>
       <c r="AE64" s="54"/>
       <c r="AF64" s="54"/>
-      <c r="AG64" s="83"/>
-      <c r="AH64" s="83"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="60"/>
       <c r="AI64" s="60"/>
       <c r="AJ64" s="60"/>
       <c r="AK64" s="60"/>
@@ -8887,12 +8839,12 @@
       <c r="AR64" s="62"/>
       <c r="AS64" s="62"/>
       <c r="AT64" s="62"/>
-      <c r="AU64" s="62"/>
-      <c r="AV64" s="62"/>
-      <c r="AW64" s="60"/>
-      <c r="AX64" s="60"/>
-      <c r="AY64" s="60"/>
-      <c r="AZ64" s="60"/>
+      <c r="AU64" s="81"/>
+      <c r="AV64" s="81"/>
+      <c r="AW64" s="81"/>
+      <c r="AX64" s="81"/>
+      <c r="AY64" s="81"/>
+      <c r="AZ64" s="81"/>
       <c r="BA64" s="60"/>
       <c r="BB64" s="60"/>
       <c r="BC64" s="60"/>
@@ -8921,26 +8873,28 @@
       <c r="BZ64" s="64"/>
       <c r="CA64" s="37"/>
     </row>
-    <row r="65" spans="1:79" s="78" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
+    <row r="65" spans="1:79" s="76" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
       <c r="A65" s="37"/>
-      <c r="B65" s="38"/>
+      <c r="B65" s="38">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="C65" s="67" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D65" s="67" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E65" s="40">
-        <v>45001</v>
+        <v>45014</v>
       </c>
       <c r="F65" s="40">
-        <v>45002</v>
+        <v>45015</v>
       </c>
       <c r="G65" s="41">
         <v>16</v>
       </c>
       <c r="H65" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I65" s="51"/>
       <c r="J65" s="52"/>
@@ -8968,10 +8922,10 @@
       <c r="AF65" s="54"/>
       <c r="AG65" s="54"/>
       <c r="AH65" s="60"/>
-      <c r="AI65" s="83"/>
-      <c r="AJ65" s="83"/>
-      <c r="AK65" s="83"/>
-      <c r="AL65" s="83"/>
+      <c r="AI65" s="60"/>
+      <c r="AJ65" s="60"/>
+      <c r="AK65" s="60"/>
+      <c r="AL65" s="60"/>
       <c r="AM65" s="62"/>
       <c r="AN65" s="62"/>
       <c r="AO65" s="62"/>
@@ -8984,16 +8938,16 @@
       <c r="AV65" s="62"/>
       <c r="AW65" s="60"/>
       <c r="AX65" s="60"/>
-      <c r="AY65" s="60"/>
-      <c r="AZ65" s="60"/>
-      <c r="BA65" s="60"/>
-      <c r="BB65" s="60"/>
-      <c r="BC65" s="60"/>
-      <c r="BD65" s="60"/>
-      <c r="BE65" s="60"/>
-      <c r="BF65" s="60"/>
-      <c r="BG65" s="63"/>
-      <c r="BH65" s="63"/>
+      <c r="AY65" s="81"/>
+      <c r="AZ65" s="81"/>
+      <c r="BA65" s="81"/>
+      <c r="BB65" s="81"/>
+      <c r="BC65" s="81"/>
+      <c r="BD65" s="81"/>
+      <c r="BE65" s="81"/>
+      <c r="BF65" s="81"/>
+      <c r="BG65" s="81"/>
+      <c r="BH65" s="81"/>
       <c r="BI65" s="63"/>
       <c r="BJ65" s="63"/>
       <c r="BK65" s="63"/>
@@ -9014,26 +8968,28 @@
       <c r="BZ65" s="64"/>
       <c r="CA65" s="37"/>
     </row>
-    <row r="66" spans="1:79" s="78" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
+    <row r="66" spans="1:79" s="76" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
       <c r="A66" s="37"/>
-      <c r="B66" s="38"/>
+      <c r="B66" s="38">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="C66" s="67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D66" s="67" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E66" s="40">
-        <v>45005</v>
+        <v>45015</v>
       </c>
       <c r="F66" s="40">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="G66" s="41">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H66" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="51"/>
       <c r="J66" s="52"/>
@@ -9065,8 +9021,8 @@
       <c r="AJ66" s="60"/>
       <c r="AK66" s="60"/>
       <c r="AL66" s="60"/>
-      <c r="AM66" s="83"/>
-      <c r="AN66" s="83"/>
+      <c r="AM66" s="62"/>
+      <c r="AN66" s="62"/>
       <c r="AO66" s="62"/>
       <c r="AP66" s="62"/>
       <c r="AQ66" s="62"/>
@@ -9083,14 +9039,14 @@
       <c r="BB66" s="60"/>
       <c r="BC66" s="60"/>
       <c r="BD66" s="60"/>
-      <c r="BE66" s="60"/>
-      <c r="BF66" s="60"/>
-      <c r="BG66" s="63"/>
-      <c r="BH66" s="63"/>
-      <c r="BI66" s="63"/>
-      <c r="BJ66" s="63"/>
-      <c r="BK66" s="63"/>
-      <c r="BL66" s="63"/>
+      <c r="BE66" s="81"/>
+      <c r="BF66" s="81"/>
+      <c r="BG66" s="81"/>
+      <c r="BH66" s="81"/>
+      <c r="BI66" s="81"/>
+      <c r="BJ66" s="81"/>
+      <c r="BK66" s="81"/>
+      <c r="BL66" s="81"/>
       <c r="BM66" s="63"/>
       <c r="BN66" s="63"/>
       <c r="BO66" s="63"/>
@@ -9107,731 +9063,149 @@
       <c r="BZ66" s="64"/>
       <c r="CA66" s="37"/>
     </row>
-    <row r="67" spans="1:79" s="78" customFormat="1" ht="16.8" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:79" s="82" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
       <c r="A67" s="37"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="67" t="s">
-        <v>70</v>
+      <c r="B67" s="38">
+        <v>9.4</v>
+      </c>
+      <c r="C67" s="132" t="s">
+        <v>95</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E67" s="40">
-        <v>45006</v>
+        <v>45015</v>
       </c>
       <c r="F67" s="40">
-        <v>45006</v>
-      </c>
-      <c r="G67" s="41">
-        <v>8</v>
-      </c>
-      <c r="H67" s="59">
-        <v>0</v>
-      </c>
-      <c r="I67" s="51"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="73"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
-      <c r="X67" s="46"/>
-      <c r="Y67" s="46"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="46"/>
-      <c r="AB67" s="46"/>
-      <c r="AC67" s="54"/>
-      <c r="AD67" s="54"/>
-      <c r="AE67" s="54"/>
-      <c r="AF67" s="54"/>
-      <c r="AG67" s="54"/>
-      <c r="AH67" s="60"/>
-      <c r="AI67" s="60"/>
-      <c r="AJ67" s="60"/>
-      <c r="AK67" s="60"/>
-      <c r="AL67" s="60"/>
-      <c r="AM67" s="62"/>
-      <c r="AN67" s="62"/>
-      <c r="AO67" s="83"/>
-      <c r="AP67" s="83"/>
-      <c r="AQ67" s="62"/>
-      <c r="AR67" s="62"/>
-      <c r="AS67" s="62"/>
-      <c r="AT67" s="62"/>
-      <c r="AU67" s="62"/>
-      <c r="AV67" s="62"/>
-      <c r="AW67" s="60"/>
-      <c r="AX67" s="60"/>
-      <c r="AY67" s="60"/>
-      <c r="AZ67" s="60"/>
-      <c r="BA67" s="60"/>
-      <c r="BB67" s="60"/>
-      <c r="BC67" s="60"/>
-      <c r="BD67" s="60"/>
-      <c r="BE67" s="60"/>
-      <c r="BF67" s="60"/>
-      <c r="BG67" s="63"/>
-      <c r="BH67" s="63"/>
-      <c r="BI67" s="63"/>
-      <c r="BJ67" s="63"/>
-      <c r="BK67" s="63"/>
-      <c r="BL67" s="63"/>
-      <c r="BM67" s="63"/>
-      <c r="BN67" s="63"/>
-      <c r="BO67" s="63"/>
-      <c r="BP67" s="63"/>
-      <c r="BQ67" s="60"/>
-      <c r="BR67" s="60"/>
-      <c r="BS67" s="60"/>
-      <c r="BT67" s="60"/>
-      <c r="BU67" s="60"/>
-      <c r="BV67" s="60"/>
-      <c r="BW67" s="60"/>
-      <c r="BX67" s="60"/>
-      <c r="BY67" s="60"/>
-      <c r="BZ67" s="64"/>
+        <v>45020</v>
+      </c>
+      <c r="G67" s="133">
+        <v>16</v>
+      </c>
+      <c r="H67" s="134">
+        <v>1</v>
+      </c>
+      <c r="I67" s="135"/>
+      <c r="J67" s="136"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="137"/>
+      <c r="N67" s="137"/>
+      <c r="O67" s="136"/>
+      <c r="P67" s="137"/>
+      <c r="Q67" s="137"/>
+      <c r="R67" s="137"/>
+      <c r="S67" s="138"/>
+      <c r="T67" s="139"/>
+      <c r="U67" s="139"/>
+      <c r="V67" s="139"/>
+      <c r="W67" s="139"/>
+      <c r="X67" s="140"/>
+      <c r="Y67" s="140"/>
+      <c r="Z67" s="140"/>
+      <c r="AA67" s="140"/>
+      <c r="AB67" s="140"/>
+      <c r="AC67" s="135"/>
+      <c r="AD67" s="136"/>
+      <c r="AE67" s="137"/>
+      <c r="AF67" s="137"/>
+      <c r="AG67" s="137"/>
+      <c r="AH67" s="137"/>
+      <c r="AI67" s="136"/>
+      <c r="AJ67" s="137"/>
+      <c r="AK67" s="137"/>
+      <c r="AL67" s="137"/>
+      <c r="AM67" s="141"/>
+      <c r="AN67" s="141"/>
+      <c r="AO67" s="141"/>
+      <c r="AP67" s="141"/>
+      <c r="AQ67" s="141"/>
+      <c r="AR67" s="141"/>
+      <c r="AS67" s="141"/>
+      <c r="AT67" s="141"/>
+      <c r="AU67" s="141"/>
+      <c r="AV67" s="141"/>
+      <c r="AW67" s="135"/>
+      <c r="AX67" s="136"/>
+      <c r="AY67" s="137"/>
+      <c r="AZ67" s="137"/>
+      <c r="BA67" s="137"/>
+      <c r="BB67" s="137"/>
+      <c r="BC67" s="136"/>
+      <c r="BD67" s="137"/>
+      <c r="BE67" s="137"/>
+      <c r="BF67" s="137"/>
+      <c r="BG67" s="142"/>
+      <c r="BH67" s="142"/>
+      <c r="BI67" s="142"/>
+      <c r="BJ67" s="142"/>
+      <c r="BK67" s="143"/>
+      <c r="BL67" s="143"/>
+      <c r="BM67" s="143"/>
+      <c r="BN67" s="143"/>
+      <c r="BO67" s="143"/>
+      <c r="BP67" s="143"/>
+      <c r="BQ67" s="143"/>
+      <c r="BR67" s="143"/>
+      <c r="BS67" s="137"/>
+      <c r="BT67" s="137"/>
+      <c r="BU67" s="137"/>
+      <c r="BV67" s="137"/>
+      <c r="BW67" s="136"/>
+      <c r="BX67" s="137"/>
+      <c r="BY67" s="137"/>
+      <c r="BZ67" s="137"/>
       <c r="CA67" s="37"/>
     </row>
-    <row r="68" spans="1:79" s="78" customFormat="1" ht="21" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="30">
-        <v>10</v>
-      </c>
-      <c r="C68" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
-      <c r="Z68" s="36"/>
-      <c r="AA68" s="36"/>
-      <c r="AB68" s="36"/>
-      <c r="AC68" s="36"/>
-      <c r="AD68" s="36"/>
-      <c r="AE68" s="36"/>
-      <c r="AF68" s="36"/>
-      <c r="AG68" s="36"/>
-      <c r="AH68" s="36"/>
-      <c r="AI68" s="36"/>
-      <c r="AJ68" s="36"/>
-      <c r="AK68" s="36"/>
-      <c r="AL68" s="36"/>
-      <c r="AM68" s="36"/>
-      <c r="AN68" s="36"/>
-      <c r="AO68" s="36"/>
-      <c r="AP68" s="36"/>
-      <c r="AQ68" s="36"/>
-      <c r="AR68" s="36"/>
-      <c r="AS68" s="36"/>
-      <c r="AT68" s="36"/>
-      <c r="AU68" s="36"/>
-      <c r="AV68" s="36"/>
-      <c r="AW68" s="36"/>
-      <c r="AX68" s="36"/>
-      <c r="AY68" s="36"/>
-      <c r="AZ68" s="36"/>
-      <c r="BA68" s="36"/>
-      <c r="BB68" s="36"/>
-      <c r="BC68" s="36"/>
-      <c r="BD68" s="36"/>
-      <c r="BE68" s="36"/>
-      <c r="BF68" s="36"/>
-      <c r="BG68" s="36"/>
-      <c r="BH68" s="36"/>
-      <c r="BI68" s="36"/>
-      <c r="BJ68" s="36"/>
-      <c r="BK68" s="36"/>
-      <c r="BL68" s="36"/>
-      <c r="BM68" s="36"/>
-      <c r="BN68" s="36"/>
-      <c r="BO68" s="36"/>
-      <c r="BP68" s="36"/>
-      <c r="BQ68" s="36"/>
-      <c r="BR68" s="36"/>
-      <c r="BS68" s="36"/>
-      <c r="BT68" s="36"/>
-      <c r="BU68" s="36"/>
-      <c r="BV68" s="36"/>
-      <c r="BW68" s="36"/>
-      <c r="BX68" s="36"/>
-      <c r="BY68" s="36"/>
-      <c r="BZ68" s="36"/>
-      <c r="CA68" s="22"/>
+    <row r="68" spans="1:79" ht="15.75" customHeight="1">
+      <c r="B68" s="123"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="131"/>
+      <c r="AC68" s="82"/>
+      <c r="AD68" s="82"/>
     </row>
-    <row r="69" spans="1:79" s="78" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="40">
-        <v>45012</v>
-      </c>
-      <c r="F69" s="40">
-        <v>45013</v>
-      </c>
-      <c r="G69" s="41">
-        <v>16</v>
-      </c>
-      <c r="H69" s="59">
-        <v>0.2</v>
-      </c>
-      <c r="I69" s="51"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="55"/>
-      <c r="U69" s="55"/>
-      <c r="V69" s="55"/>
-      <c r="W69" s="55"/>
-      <c r="X69" s="46"/>
-      <c r="Y69" s="46"/>
-      <c r="Z69" s="46"/>
-      <c r="AA69" s="46"/>
-      <c r="AB69" s="46"/>
-      <c r="AC69" s="54"/>
-      <c r="AD69" s="54"/>
-      <c r="AE69" s="54"/>
-      <c r="AF69" s="54"/>
-      <c r="AG69" s="54"/>
-      <c r="AH69" s="60"/>
-      <c r="AI69" s="60"/>
-      <c r="AJ69" s="60"/>
-      <c r="AK69" s="60"/>
-      <c r="AL69" s="60"/>
-      <c r="AM69" s="62"/>
-      <c r="AN69" s="62"/>
-      <c r="AO69" s="62"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="62"/>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="62"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="60"/>
-      <c r="AX69" s="60"/>
-      <c r="AY69" s="60"/>
-      <c r="AZ69" s="60"/>
-      <c r="BA69" s="60"/>
-      <c r="BB69" s="60"/>
-      <c r="BC69" s="60"/>
-      <c r="BD69" s="60"/>
-      <c r="BE69" s="60"/>
-      <c r="BF69" s="60"/>
-      <c r="BG69" s="85"/>
-      <c r="BH69" s="85"/>
-      <c r="BI69" s="85"/>
-      <c r="BJ69" s="85"/>
-      <c r="BK69" s="63"/>
-      <c r="BL69" s="63"/>
-      <c r="BM69" s="63"/>
-      <c r="BN69" s="63"/>
-      <c r="BO69" s="63"/>
-      <c r="BP69" s="63"/>
-      <c r="BQ69" s="60"/>
-      <c r="BR69" s="60"/>
-      <c r="BS69" s="60"/>
-      <c r="BT69" s="60"/>
-      <c r="BU69" s="60"/>
-      <c r="BV69" s="60"/>
-      <c r="BW69" s="60"/>
-      <c r="BX69" s="60"/>
-      <c r="BY69" s="60"/>
-      <c r="BZ69" s="64"/>
-      <c r="CA69" s="37"/>
+    <row r="69" spans="1:79" ht="15.75" customHeight="1">
+      <c r="H69" s="65"/>
+      <c r="AC69" s="82"/>
+      <c r="AD69" s="82"/>
     </row>
-    <row r="70" spans="1:79" s="78" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
-      <c r="A70" s="37"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="40">
-        <v>45014</v>
-      </c>
-      <c r="F70" s="40">
-        <v>45015</v>
-      </c>
-      <c r="G70" s="41">
-        <v>16</v>
-      </c>
-      <c r="H70" s="59">
-        <v>0</v>
-      </c>
-      <c r="I70" s="51"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="54"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="73"/>
-      <c r="T70" s="55"/>
-      <c r="U70" s="55"/>
-      <c r="V70" s="55"/>
-      <c r="W70" s="55"/>
-      <c r="X70" s="46"/>
-      <c r="Y70" s="46"/>
-      <c r="Z70" s="46"/>
-      <c r="AA70" s="46"/>
-      <c r="AB70" s="46"/>
-      <c r="AC70" s="54"/>
-      <c r="AD70" s="54"/>
-      <c r="AE70" s="54"/>
-      <c r="AF70" s="54"/>
-      <c r="AG70" s="54"/>
-      <c r="AH70" s="60"/>
-      <c r="AI70" s="60"/>
-      <c r="AJ70" s="60"/>
-      <c r="AK70" s="60"/>
-      <c r="AL70" s="60"/>
-      <c r="AM70" s="62"/>
-      <c r="AN70" s="62"/>
-      <c r="AO70" s="62"/>
-      <c r="AP70" s="62"/>
-      <c r="AQ70" s="62"/>
-      <c r="AR70" s="62"/>
-      <c r="AS70" s="62"/>
-      <c r="AT70" s="62"/>
-      <c r="AU70" s="62"/>
-      <c r="AV70" s="62"/>
-      <c r="AW70" s="60"/>
-      <c r="AX70" s="60"/>
-      <c r="AY70" s="60"/>
-      <c r="AZ70" s="60"/>
-      <c r="BA70" s="60"/>
-      <c r="BB70" s="60"/>
-      <c r="BC70" s="60"/>
-      <c r="BD70" s="60"/>
-      <c r="BE70" s="60"/>
-      <c r="BF70" s="60"/>
-      <c r="BG70" s="63"/>
-      <c r="BH70" s="63"/>
-      <c r="BI70" s="63"/>
-      <c r="BJ70" s="85"/>
-      <c r="BK70" s="85"/>
-      <c r="BL70" s="85"/>
-      <c r="BM70" s="85"/>
-      <c r="BN70" s="63"/>
-      <c r="BO70" s="63"/>
-      <c r="BP70" s="63"/>
-      <c r="BQ70" s="60"/>
-      <c r="BR70" s="60"/>
-      <c r="BS70" s="60"/>
-      <c r="BT70" s="60"/>
-      <c r="BU70" s="60"/>
-      <c r="BV70" s="60"/>
-      <c r="BW70" s="60"/>
-      <c r="BX70" s="60"/>
-      <c r="BY70" s="60"/>
-      <c r="BZ70" s="64"/>
-      <c r="CA70" s="37"/>
+    <row r="70" spans="1:79" ht="15.75" customHeight="1">
+      <c r="H70" s="65"/>
+      <c r="AC70" s="82"/>
+      <c r="AD70" s="82"/>
     </row>
-    <row r="71" spans="1:79" s="78" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E71" s="40">
-        <v>45015</v>
-      </c>
-      <c r="F71" s="40">
-        <v>45016</v>
-      </c>
-      <c r="G71" s="41">
-        <v>16</v>
-      </c>
-      <c r="H71" s="59">
-        <v>0</v>
-      </c>
-      <c r="I71" s="51"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="73"/>
-      <c r="T71" s="55"/>
-      <c r="U71" s="55"/>
-      <c r="V71" s="55"/>
-      <c r="W71" s="55"/>
-      <c r="X71" s="46"/>
-      <c r="Y71" s="46"/>
-      <c r="Z71" s="46"/>
-      <c r="AA71" s="46"/>
-      <c r="AB71" s="46"/>
-      <c r="AC71" s="54"/>
-      <c r="AD71" s="54"/>
-      <c r="AE71" s="54"/>
-      <c r="AF71" s="54"/>
-      <c r="AG71" s="54"/>
-      <c r="AH71" s="60"/>
-      <c r="AI71" s="60"/>
-      <c r="AJ71" s="60"/>
-      <c r="AK71" s="60"/>
-      <c r="AL71" s="60"/>
-      <c r="AM71" s="62"/>
-      <c r="AN71" s="62"/>
-      <c r="AO71" s="62"/>
-      <c r="AP71" s="62"/>
-      <c r="AQ71" s="62"/>
-      <c r="AR71" s="62"/>
-      <c r="AS71" s="62"/>
-      <c r="AT71" s="62"/>
-      <c r="AU71" s="62"/>
-      <c r="AV71" s="62"/>
-      <c r="AW71" s="60"/>
-      <c r="AX71" s="60"/>
-      <c r="AY71" s="60"/>
-      <c r="AZ71" s="60"/>
-      <c r="BA71" s="60"/>
-      <c r="BB71" s="60"/>
-      <c r="BC71" s="60"/>
-      <c r="BD71" s="60"/>
-      <c r="BE71" s="60"/>
-      <c r="BF71" s="60"/>
-      <c r="BG71" s="63"/>
-      <c r="BH71" s="63"/>
-      <c r="BI71" s="63"/>
-      <c r="BJ71" s="63"/>
-      <c r="BK71" s="63"/>
-      <c r="BL71" s="63"/>
-      <c r="BM71" s="85"/>
-      <c r="BN71" s="85"/>
-      <c r="BO71" s="85"/>
-      <c r="BP71" s="85"/>
-      <c r="BQ71" s="60"/>
-      <c r="BR71" s="60"/>
-      <c r="BS71" s="60"/>
-      <c r="BT71" s="60"/>
-      <c r="BU71" s="60"/>
-      <c r="BV71" s="60"/>
-      <c r="BW71" s="60"/>
-      <c r="BX71" s="60"/>
-      <c r="BY71" s="60"/>
-      <c r="BZ71" s="64"/>
-      <c r="CA71" s="37"/>
+    <row r="71" spans="1:79" ht="15.75" customHeight="1">
+      <c r="H71" s="65"/>
+      <c r="AC71" s="82"/>
+      <c r="AD71" s="82"/>
     </row>
-    <row r="72" spans="1:79" s="78" customFormat="1" ht="21" customHeight="1">
-      <c r="A72" s="22"/>
-      <c r="B72" s="30">
-        <v>10</v>
-      </c>
-      <c r="C72" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
-      <c r="Z72" s="36"/>
-      <c r="AA72" s="36"/>
-      <c r="AB72" s="36"/>
-      <c r="AC72" s="36"/>
-      <c r="AD72" s="36"/>
-      <c r="AE72" s="36"/>
-      <c r="AF72" s="36"/>
-      <c r="AG72" s="36"/>
-      <c r="AH72" s="36"/>
-      <c r="AI72" s="36"/>
-      <c r="AJ72" s="36"/>
-      <c r="AK72" s="36"/>
-      <c r="AL72" s="36"/>
-      <c r="AM72" s="36"/>
-      <c r="AN72" s="36"/>
-      <c r="AO72" s="36"/>
-      <c r="AP72" s="36"/>
-      <c r="AQ72" s="36"/>
-      <c r="AR72" s="36"/>
-      <c r="AS72" s="36"/>
-      <c r="AT72" s="36"/>
-      <c r="AU72" s="36"/>
-      <c r="AV72" s="36"/>
-      <c r="AW72" s="36"/>
-      <c r="AX72" s="36"/>
-      <c r="AY72" s="36"/>
-      <c r="AZ72" s="36"/>
-      <c r="BA72" s="36"/>
-      <c r="BB72" s="36"/>
-      <c r="BC72" s="36"/>
-      <c r="BD72" s="36"/>
-      <c r="BE72" s="36"/>
-      <c r="BF72" s="36"/>
-      <c r="BG72" s="36"/>
-      <c r="BH72" s="36"/>
-      <c r="BI72" s="36"/>
-      <c r="BJ72" s="36"/>
-      <c r="BK72" s="36"/>
-      <c r="BL72" s="36"/>
-      <c r="BM72" s="36"/>
-      <c r="BN72" s="36"/>
-      <c r="BO72" s="36"/>
-      <c r="BP72" s="36"/>
-      <c r="BQ72" s="36"/>
-      <c r="BR72" s="36"/>
-      <c r="BS72" s="36"/>
-      <c r="BT72" s="36"/>
-      <c r="BU72" s="36"/>
-      <c r="BV72" s="36"/>
-      <c r="BW72" s="36"/>
-      <c r="BX72" s="36"/>
-      <c r="BY72" s="36"/>
-      <c r="BZ72" s="36"/>
-      <c r="CA72" s="22"/>
+    <row r="72" spans="1:79" ht="15.75" customHeight="1">
+      <c r="H72" s="65"/>
+      <c r="AC72" s="82"/>
+      <c r="AD72" s="82"/>
     </row>
-    <row r="73" spans="1:79" s="78" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H73" s="59">
-        <v>0</v>
-      </c>
-      <c r="I73" s="51"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="73"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="55"/>
-      <c r="V73" s="55"/>
-      <c r="W73" s="55"/>
-      <c r="X73" s="46"/>
-      <c r="Y73" s="46"/>
-      <c r="Z73" s="46"/>
-      <c r="AA73" s="46"/>
-      <c r="AB73" s="46"/>
-      <c r="AC73" s="54"/>
-      <c r="AD73" s="54"/>
-      <c r="AE73" s="54"/>
-      <c r="AF73" s="54"/>
-      <c r="AG73" s="54"/>
-      <c r="AH73" s="60"/>
-      <c r="AI73" s="60"/>
-      <c r="AJ73" s="60"/>
-      <c r="AK73" s="60"/>
-      <c r="AL73" s="60"/>
-      <c r="AM73" s="62"/>
-      <c r="AN73" s="62"/>
-      <c r="AO73" s="62"/>
-      <c r="AP73" s="62"/>
-      <c r="AQ73" s="62"/>
-      <c r="AR73" s="62"/>
-      <c r="AS73" s="62"/>
-      <c r="AT73" s="62"/>
-      <c r="AU73" s="62"/>
-      <c r="AV73" s="62"/>
-      <c r="AW73" s="60"/>
-      <c r="AX73" s="60"/>
-      <c r="AY73" s="60"/>
-      <c r="AZ73" s="60"/>
-      <c r="BA73" s="60"/>
-      <c r="BB73" s="60"/>
-      <c r="BC73" s="60"/>
-      <c r="BD73" s="60"/>
-      <c r="BE73" s="60"/>
-      <c r="BF73" s="60"/>
-      <c r="BG73" s="63"/>
-      <c r="BH73" s="63"/>
-      <c r="BI73" s="63"/>
-      <c r="BJ73" s="63"/>
-      <c r="BK73" s="63"/>
-      <c r="BL73" s="63"/>
-      <c r="BM73" s="63"/>
-      <c r="BN73" s="63"/>
-      <c r="BO73" s="63"/>
-      <c r="BP73" s="63"/>
-      <c r="BQ73" s="60"/>
-      <c r="BR73" s="60"/>
-      <c r="BS73" s="60"/>
-      <c r="BT73" s="60"/>
-      <c r="BU73" s="60"/>
-      <c r="BV73" s="60"/>
-      <c r="BW73" s="60"/>
-      <c r="BX73" s="60"/>
-      <c r="BY73" s="60"/>
-      <c r="BZ73" s="64"/>
-      <c r="CA73" s="37"/>
+    <row r="73" spans="1:79" ht="15.75" customHeight="1">
+      <c r="H73" s="65"/>
+      <c r="AC73" s="82"/>
+      <c r="AD73" s="82"/>
     </row>
-    <row r="74" spans="1:79" s="78" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H74" s="59">
-        <v>0</v>
-      </c>
-      <c r="I74" s="51"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="60"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="55"/>
-      <c r="W74" s="55"/>
-      <c r="X74" s="46"/>
-      <c r="Y74" s="46"/>
-      <c r="Z74" s="46"/>
-      <c r="AA74" s="46"/>
-      <c r="AB74" s="46"/>
-      <c r="AC74" s="54"/>
-      <c r="AD74" s="54"/>
-      <c r="AE74" s="54"/>
-      <c r="AF74" s="54"/>
-      <c r="AG74" s="54"/>
-      <c r="AH74" s="60"/>
-      <c r="AI74" s="60"/>
-      <c r="AJ74" s="60"/>
-      <c r="AK74" s="60"/>
-      <c r="AL74" s="60"/>
-      <c r="AM74" s="62"/>
-      <c r="AN74" s="62"/>
-      <c r="AO74" s="62"/>
-      <c r="AP74" s="62"/>
-      <c r="AQ74" s="62"/>
-      <c r="AR74" s="62"/>
-      <c r="AS74" s="62"/>
-      <c r="AT74" s="62"/>
-      <c r="AU74" s="62"/>
-      <c r="AV74" s="62"/>
-      <c r="AW74" s="60"/>
-      <c r="AX74" s="60"/>
-      <c r="AY74" s="60"/>
-      <c r="AZ74" s="60"/>
-      <c r="BA74" s="60"/>
-      <c r="BB74" s="60"/>
-      <c r="BC74" s="60"/>
-      <c r="BD74" s="60"/>
-      <c r="BE74" s="60"/>
-      <c r="BF74" s="60"/>
-      <c r="BG74" s="63"/>
-      <c r="BH74" s="63"/>
-      <c r="BI74" s="63"/>
-      <c r="BJ74" s="63"/>
-      <c r="BK74" s="63"/>
-      <c r="BL74" s="63"/>
-      <c r="BM74" s="63"/>
-      <c r="BN74" s="63"/>
-      <c r="BO74" s="63"/>
-      <c r="BP74" s="63"/>
-      <c r="BQ74" s="60"/>
-      <c r="BR74" s="60"/>
-      <c r="BS74" s="60"/>
-      <c r="BT74" s="60"/>
-      <c r="BU74" s="60"/>
-      <c r="BV74" s="60"/>
-      <c r="BW74" s="60"/>
-      <c r="BX74" s="60"/>
-      <c r="BY74" s="60"/>
-      <c r="BZ74" s="64"/>
-      <c r="CA74" s="37"/>
+    <row r="74" spans="1:79" ht="15.75" customHeight="1">
+      <c r="AC74" s="82"/>
+      <c r="AD74" s="82"/>
     </row>
     <row r="75" spans="1:79" ht="15.75" customHeight="1">
       <c r="H75" s="65"/>
+      <c r="AC75" s="82"/>
+      <c r="AD75" s="82"/>
     </row>
     <row r="76" spans="1:79" ht="15.75" customHeight="1">
       <c r="H76" s="65"/>
+      <c r="AC76" s="82"/>
     </row>
     <row r="77" spans="1:79" ht="15.75" customHeight="1">
       <c r="H77" s="65"/>
@@ -9845,81 +9219,14 @@
     <row r="80" spans="1:79" ht="15.75" customHeight="1">
       <c r="H80" s="65"/>
     </row>
+    <row r="81" spans="8:8" ht="15.75" customHeight="1">
+      <c r="H81" s="65"/>
+    </row>
     <row r="82" spans="8:8" ht="15.75" customHeight="1">
       <c r="H82" s="65"/>
     </row>
-    <row r="83" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H83" s="65"/>
-    </row>
-    <row r="84" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H84" s="65"/>
-    </row>
-    <row r="85" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H85" s="65"/>
-    </row>
-    <row r="86" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H86" s="65"/>
-    </row>
-    <row r="87" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H87" s="65"/>
-    </row>
-    <row r="88" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H88" s="65"/>
-    </row>
-    <row r="89" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H89" s="65"/>
-    </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="BQ10:BR10"/>
-    <mergeCell ref="BS10:BT10"/>
-    <mergeCell ref="BU10:BV10"/>
-    <mergeCell ref="BW10:BX10"/>
-    <mergeCell ref="BY10:BZ10"/>
-    <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="BK10:BL10"/>
-    <mergeCell ref="BM10:BN10"/>
-    <mergeCell ref="BO10:BP10"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="BC10:BD10"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AW8:BZ8"/>
-    <mergeCell ref="AW9:BF9"/>
-    <mergeCell ref="BG9:BP9"/>
-    <mergeCell ref="BQ9:BZ9"/>
-    <mergeCell ref="AC8:AV8"/>
-    <mergeCell ref="AM9:AV9"/>
-    <mergeCell ref="AC9:AL9"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AF5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AG4"/>
-    <mergeCell ref="O2:AL2"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="S9:AB9"/>
     <mergeCell ref="I8:AB8"/>
@@ -9934,100 +9241,149 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AF5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AG4"/>
+    <mergeCell ref="O2:AL2"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="AW8:BZ8"/>
+    <mergeCell ref="AW9:BF9"/>
+    <mergeCell ref="BG9:BP9"/>
+    <mergeCell ref="BQ9:BZ9"/>
+    <mergeCell ref="AC8:AV8"/>
+    <mergeCell ref="AM9:AV9"/>
+    <mergeCell ref="AC9:AL9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="BC10:BD10"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="BI10:BJ10"/>
+    <mergeCell ref="BK10:BL10"/>
+    <mergeCell ref="BM10:BN10"/>
+    <mergeCell ref="BO10:BP10"/>
+    <mergeCell ref="BQ10:BR10"/>
+    <mergeCell ref="BS10:BT10"/>
+    <mergeCell ref="BU10:BV10"/>
+    <mergeCell ref="BW10:BX10"/>
+    <mergeCell ref="BY10:BZ10"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <conditionalFormatting sqref="R18">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="53">
       <formula>LEN(TRIM(R18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="54">
       <formula>LEN(TRIM(R18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="61">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="63">
       <formula>LEN(TRIM(K18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="62">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="64">
       <formula>LEN(TRIM(K18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="59">
-      <formula>LEN(TRIM(M18))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="60">
-      <formula>LEN(TRIM(M18))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="53">
-      <formula>LEN(TRIM(P18))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="54">
-      <formula>LEN(TRIM(P18))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="39">
       <formula>LEN(TRIM(P14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="40">
       <formula>LEN(TRIM(P14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="37">
       <formula>LEN(TRIM(N14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="38">
       <formula>LEN(TRIM(N14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="35">
       <formula>LEN(TRIM(P14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="36">
       <formula>LEN(TRIM(P14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="33">
       <formula>LEN(TRIM(AE18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="34">
       <formula>LEN(TRIM(AE18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="31">
       <formula>LEN(TRIM(AG18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="32">
       <formula>LEN(TRIM(AG18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10037,7 +9393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10046,7 +9402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H44">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -10056,7 +9412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H44">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -10066,7 +9422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H50">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -10076,7 +9432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H50">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -10086,8 +9442,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10096,8 +9452,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H57">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10106,47 +9462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H74 H21:H40 H13:H19 H42:H45 H47:H48 H50:H54 H56:H61 H63:H67 H69:H71">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73:H74 H21:H40 H13:H19 H42:H45 H47:H48 H50:H54 H56:H61 H63:H67 H69:H71">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FF57BB8A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10156,8 +9472,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H63">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H35 H13:H19 H37:H40 H42:H43 H45:H49 H51:H56 H58:H62 H64:H67">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H35 H13:H19 H37:H40 H42:H43 H45:H49 H51:H56 H58:H62 H64:H67">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
